--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,63 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B62" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>149.8999938964844</v>
+      </c>
+      <c r="D62" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>145.5500030517578</v>
+      </c>
+      <c r="F62" t="n">
+        <v>145.5500030517578</v>
+      </c>
+      <c r="G62" t="n">
+        <v>57456</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>23</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -3941,7 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,279 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B67" t="n">
+        <v>148.1000061035156</v>
+      </c>
+      <c r="C67" t="n">
+        <v>149.8999938964844</v>
+      </c>
+      <c r="D67" t="n">
+        <v>145.6900024414062</v>
+      </c>
+      <c r="E67" t="n">
+        <v>146.2400054931641</v>
+      </c>
+      <c r="F67" t="n">
+        <v>146.2400054931641</v>
+      </c>
+      <c r="G67" t="n">
+        <v>162119</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>10</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>24</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B68" t="n">
+        <v>146.6499938964844</v>
+      </c>
+      <c r="C68" t="n">
+        <v>148.8000030517578</v>
+      </c>
+      <c r="D68" t="n">
+        <v>146.6499938964844</v>
+      </c>
+      <c r="E68" t="n">
+        <v>147.5700073242188</v>
+      </c>
+      <c r="F68" t="n">
+        <v>147.5700073242188</v>
+      </c>
+      <c r="G68" t="n">
+        <v>118769</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>11</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>24</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B69" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>150</v>
+      </c>
+      <c r="D69" t="n">
+        <v>147</v>
+      </c>
+      <c r="E69" t="n">
+        <v>148.5299987792969</v>
+      </c>
+      <c r="F69" t="n">
+        <v>148.5299987792969</v>
+      </c>
+      <c r="G69" t="n">
+        <v>167560</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>12</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>24</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B70" t="n">
+        <v>148.5399932861328</v>
+      </c>
+      <c r="C70" t="n">
+        <v>156.3399963378906</v>
+      </c>
+      <c r="D70" t="n">
+        <v>147.7100067138672</v>
+      </c>
+      <c r="E70" t="n">
+        <v>155.3399963378906</v>
+      </c>
+      <c r="F70" t="n">
+        <v>155.3399963378906</v>
+      </c>
+      <c r="G70" t="n">
+        <v>327228</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>13</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>24</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B71" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>157.7599945068359</v>
+      </c>
+      <c r="D71" t="n">
+        <v>152.8099975585938</v>
+      </c>
+      <c r="E71" t="n">
+        <v>154.3399963378906</v>
+      </c>
+      <c r="F71" t="n">
+        <v>154.3399963378906</v>
+      </c>
+      <c r="G71" t="n">
+        <v>165885</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>14</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>24</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -4221,7 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4275,7 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4329,7 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4383,7 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4437,7 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4449,6 +4449,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B72" t="n">
+        <v>154.6499938964844</v>
+      </c>
+      <c r="C72" t="n">
+        <v>156.9499969482422</v>
+      </c>
+      <c r="D72" t="n">
+        <v>153.5299987792969</v>
+      </c>
+      <c r="E72" t="n">
+        <v>154.6999969482422</v>
+      </c>
+      <c r="F72" t="n">
+        <v>154.6999969482422</v>
+      </c>
+      <c r="G72" t="n">
+        <v>138123</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6</v>
+      </c>
+      <c r="J72" t="n">
+        <v>18</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>25</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3989,7 +3989,7 @@
         <v>23</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -4501,7 +4501,63 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B73" t="n">
+        <v>155.8800048828125</v>
+      </c>
+      <c r="C73" t="n">
+        <v>156.4799957275391</v>
+      </c>
+      <c r="D73" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>150.7599945068359</v>
+      </c>
+      <c r="F73" t="n">
+        <v>150.7599945068359</v>
+      </c>
+      <c r="G73" t="n">
+        <v>147549</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>19</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>25</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4557,7 +4557,387 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B74" t="n">
+        <v>151.0399932861328</v>
+      </c>
+      <c r="C74" t="n">
+        <v>152.4900054931641</v>
+      </c>
+      <c r="D74" t="n">
+        <v>149.6000061035156</v>
+      </c>
+      <c r="E74" t="n">
+        <v>150.7200012207031</v>
+      </c>
+      <c r="F74" t="n">
+        <v>150.7200012207031</v>
+      </c>
+      <c r="G74" t="n">
+        <v>163111</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>20</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>25</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B75" t="n">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>156.8600006103516</v>
+      </c>
+      <c r="D75" t="n">
+        <v>150.8999938964844</v>
+      </c>
+      <c r="E75" t="n">
+        <v>153.6499938964844</v>
+      </c>
+      <c r="F75" t="n">
+        <v>153.6499938964844</v>
+      </c>
+      <c r="G75" t="n">
+        <v>226871</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>21</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>25</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B76" t="n">
+        <v>154.8000030517578</v>
+      </c>
+      <c r="C76" t="n">
+        <v>154.8000030517578</v>
+      </c>
+      <c r="D76" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>153.0200042724609</v>
+      </c>
+      <c r="F76" t="n">
+        <v>153.0200042724609</v>
+      </c>
+      <c r="G76" t="n">
+        <v>137850</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>24</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>26</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B77" t="n">
+        <v>153.0099945068359</v>
+      </c>
+      <c r="C77" t="n">
+        <v>154.7899932861328</v>
+      </c>
+      <c r="D77" t="n">
+        <v>151.6100006103516</v>
+      </c>
+      <c r="E77" t="n">
+        <v>152.0299987792969</v>
+      </c>
+      <c r="F77" t="n">
+        <v>152.0299987792969</v>
+      </c>
+      <c r="G77" t="n">
+        <v>84201</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6</v>
+      </c>
+      <c r="J77" t="n">
+        <v>25</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>26</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B78" t="n">
+        <v>152.1100006103516</v>
+      </c>
+      <c r="C78" t="n">
+        <v>152.8899993896484</v>
+      </c>
+      <c r="D78" t="n">
+        <v>150</v>
+      </c>
+      <c r="E78" t="n">
+        <v>150.2799987792969</v>
+      </c>
+      <c r="F78" t="n">
+        <v>150.2799987792969</v>
+      </c>
+      <c r="G78" t="n">
+        <v>82193</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>26</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>26</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B79" t="n">
+        <v>151.3999938964844</v>
+      </c>
+      <c r="C79" t="n">
+        <v>152</v>
+      </c>
+      <c r="D79" t="n">
+        <v>148.6000061035156</v>
+      </c>
+      <c r="E79" t="n">
+        <v>151.1199951171875</v>
+      </c>
+      <c r="F79" t="n">
+        <v>151.1199951171875</v>
+      </c>
+      <c r="G79" t="n">
+        <v>125331</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>27</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>26</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B80" t="n">
+        <v>151.8999938964844</v>
+      </c>
+      <c r="C80" t="n">
+        <v>151.8999938964844</v>
+      </c>
+      <c r="D80" t="n">
+        <v>150.0399932861328</v>
+      </c>
+      <c r="E80" t="n">
+        <v>150.9100036621094</v>
+      </c>
+      <c r="F80" t="n">
+        <v>150.9100036621094</v>
+      </c>
+      <c r="G80" t="n">
+        <v>65509</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>28</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>26</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -4613,7 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4667,7 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4721,7 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4775,7 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4829,7 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4883,7 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4937,7 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4437,7 +4437,7 @@
         <v>24</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4952,6 +4952,276 @@
       <c r="R80" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B81" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>152</v>
+      </c>
+      <c r="D81" t="n">
+        <v>149.1600036621094</v>
+      </c>
+      <c r="E81" t="n">
+        <v>151.4600067138672</v>
+      </c>
+      <c r="F81" t="n">
+        <v>151.4600067138672</v>
+      </c>
+      <c r="G81" t="n">
+        <v>81141</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>27</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B82" t="n">
+        <v>153</v>
+      </c>
+      <c r="C82" t="n">
+        <v>155</v>
+      </c>
+      <c r="D82" t="n">
+        <v>152.1799926757812</v>
+      </c>
+      <c r="E82" t="n">
+        <v>153.8800048828125</v>
+      </c>
+      <c r="F82" t="n">
+        <v>153.8800048828125</v>
+      </c>
+      <c r="G82" t="n">
+        <v>134577</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>27</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B83" t="n">
+        <v>154</v>
+      </c>
+      <c r="C83" t="n">
+        <v>163.6399993896484</v>
+      </c>
+      <c r="D83" t="n">
+        <v>153.6000061035156</v>
+      </c>
+      <c r="E83" t="n">
+        <v>162.0700073242188</v>
+      </c>
+      <c r="F83" t="n">
+        <v>162.0700073242188</v>
+      </c>
+      <c r="G83" t="n">
+        <v>602657</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I83" t="n">
+        <v>7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>27</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B84" t="n">
+        <v>163.8500061035156</v>
+      </c>
+      <c r="C84" t="n">
+        <v>168.1999969482422</v>
+      </c>
+      <c r="D84" t="n">
+        <v>163</v>
+      </c>
+      <c r="E84" t="n">
+        <v>167.0399932861328</v>
+      </c>
+      <c r="F84" t="n">
+        <v>167.0399932861328</v>
+      </c>
+      <c r="G84" t="n">
+        <v>500633</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I84" t="n">
+        <v>7</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>27</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B85" t="n">
+        <v>167.1900024414062</v>
+      </c>
+      <c r="C85" t="n">
+        <v>175.5599975585938</v>
+      </c>
+      <c r="D85" t="n">
+        <v>165</v>
+      </c>
+      <c r="E85" t="n">
+        <v>172.9499969482422</v>
+      </c>
+      <c r="F85" t="n">
+        <v>172.9499969482422</v>
+      </c>
+      <c r="G85" t="n">
+        <v>683689</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>27</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5005,7 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -5059,7 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -5113,7 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -5167,7 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -5221,7 +5229,495 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B86" t="n">
+        <v>174</v>
+      </c>
+      <c r="C86" t="n">
+        <v>180.1000061035156</v>
+      </c>
+      <c r="D86" t="n">
+        <v>172.2100067138672</v>
+      </c>
+      <c r="E86" t="n">
+        <v>173.0899963378906</v>
+      </c>
+      <c r="F86" t="n">
+        <v>171.5780181884766</v>
+      </c>
+      <c r="G86" t="n">
+        <v>644854</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>8</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>28</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B87" t="n">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>178.7799987792969</v>
+      </c>
+      <c r="D87" t="n">
+        <v>172.3300018310547</v>
+      </c>
+      <c r="E87" t="n">
+        <v>174.6199951171875</v>
+      </c>
+      <c r="F87" t="n">
+        <v>173.0946655273438</v>
+      </c>
+      <c r="G87" t="n">
+        <v>296124</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I87" t="n">
+        <v>7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>28</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B88" t="n">
+        <v>173.6999969482422</v>
+      </c>
+      <c r="C88" t="n">
+        <v>173.8999938964844</v>
+      </c>
+      <c r="D88" t="n">
+        <v>164.8899993896484</v>
+      </c>
+      <c r="E88" t="n">
+        <v>169.0899963378906</v>
+      </c>
+      <c r="F88" t="n">
+        <v>167.6129608154297</v>
+      </c>
+      <c r="G88" t="n">
+        <v>225606</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>28</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B89" t="n">
+        <v>170</v>
+      </c>
+      <c r="C89" t="n">
+        <v>171.6999969482422</v>
+      </c>
+      <c r="D89" t="n">
+        <v>166.8699951171875</v>
+      </c>
+      <c r="E89" t="n">
+        <v>167.3600006103516</v>
+      </c>
+      <c r="F89" t="n">
+        <v>165.8980865478516</v>
+      </c>
+      <c r="G89" t="n">
+        <v>117542</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>11</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>28</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B90" t="n">
+        <v>167.5200042724609</v>
+      </c>
+      <c r="C90" t="n">
+        <v>170</v>
+      </c>
+      <c r="D90" t="n">
+        <v>165.0099945068359</v>
+      </c>
+      <c r="E90" t="n">
+        <v>165.3500061035156</v>
+      </c>
+      <c r="F90" t="n">
+        <v>163.9056396484375</v>
+      </c>
+      <c r="G90" t="n">
+        <v>129794</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I90" t="n">
+        <v>7</v>
+      </c>
+      <c r="J90" t="n">
+        <v>12</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>28</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B91" t="n">
+        <v>167.8500061035156</v>
+      </c>
+      <c r="C91" t="n">
+        <v>168.0500030517578</v>
+      </c>
+      <c r="D91" t="n">
+        <v>165</v>
+      </c>
+      <c r="E91" t="n">
+        <v>165.3600006103516</v>
+      </c>
+      <c r="F91" t="n">
+        <v>163.9155578613281</v>
+      </c>
+      <c r="G91" t="n">
+        <v>117146</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I91" t="n">
+        <v>7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>15</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>29</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B92" t="n">
+        <v>167.8500061035156</v>
+      </c>
+      <c r="C92" t="n">
+        <v>173.5899963378906</v>
+      </c>
+      <c r="D92" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>171.7200012207031</v>
+      </c>
+      <c r="F92" t="n">
+        <v>170.2200012207031</v>
+      </c>
+      <c r="G92" t="n">
+        <v>291390</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I92" t="n">
+        <v>7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>16</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>29</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B93" t="n">
+        <v>171.7200012207031</v>
+      </c>
+      <c r="C93" t="n">
+        <v>180.8999938964844</v>
+      </c>
+      <c r="D93" t="n">
+        <v>171.7200012207031</v>
+      </c>
+      <c r="E93" t="n">
+        <v>175.2700042724609</v>
+      </c>
+      <c r="F93" t="n">
+        <v>175.2700042724609</v>
+      </c>
+      <c r="G93" t="n">
+        <v>610363</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>18</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>29</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B94" t="n">
+        <v>175</v>
+      </c>
+      <c r="C94" t="n">
+        <v>175</v>
+      </c>
+      <c r="D94" t="n">
+        <v>167</v>
+      </c>
+      <c r="E94" t="n">
+        <v>167.9100036621094</v>
+      </c>
+      <c r="F94" t="n">
+        <v>167.9100036621094</v>
+      </c>
+      <c r="G94" t="n">
+        <v>262916</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I94" t="n">
+        <v>7</v>
+      </c>
+      <c r="J94" t="n">
+        <v>19</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>29</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5285,7 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5339,7 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5393,7 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5447,7 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5501,7 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5555,7 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5609,7 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5663,7 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5717,7 +5733,549 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B95" t="n">
+        <v>167.9100036621094</v>
+      </c>
+      <c r="C95" t="n">
+        <v>171</v>
+      </c>
+      <c r="D95" t="n">
+        <v>165.5500030517578</v>
+      </c>
+      <c r="E95" t="n">
+        <v>169.1100006103516</v>
+      </c>
+      <c r="F95" t="n">
+        <v>169.1100006103516</v>
+      </c>
+      <c r="G95" t="n">
+        <v>95099</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I95" t="n">
+        <v>7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>22</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>30</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B96" t="n">
+        <v>169.8999938964844</v>
+      </c>
+      <c r="C96" t="n">
+        <v>171.2599945068359</v>
+      </c>
+      <c r="D96" t="n">
+        <v>162.0599975585938</v>
+      </c>
+      <c r="E96" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="F96" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="G96" t="n">
+        <v>169051</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I96" t="n">
+        <v>7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>23</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>30</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B97" t="n">
+        <v>164.75</v>
+      </c>
+      <c r="C97" t="n">
+        <v>169.2799987792969</v>
+      </c>
+      <c r="D97" t="n">
+        <v>164.75</v>
+      </c>
+      <c r="E97" t="n">
+        <v>167.9900054931641</v>
+      </c>
+      <c r="F97" t="n">
+        <v>167.9900054931641</v>
+      </c>
+      <c r="G97" t="n">
+        <v>111577</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I97" t="n">
+        <v>7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>24</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>30</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B98" t="n">
+        <v>165.4499969482422</v>
+      </c>
+      <c r="C98" t="n">
+        <v>169.3800048828125</v>
+      </c>
+      <c r="D98" t="n">
+        <v>165</v>
+      </c>
+      <c r="E98" t="n">
+        <v>167.9100036621094</v>
+      </c>
+      <c r="F98" t="n">
+        <v>167.9100036621094</v>
+      </c>
+      <c r="G98" t="n">
+        <v>100005</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>25</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>30</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B99" t="n">
+        <v>167</v>
+      </c>
+      <c r="C99" t="n">
+        <v>174.6000061035156</v>
+      </c>
+      <c r="D99" t="n">
+        <v>167</v>
+      </c>
+      <c r="E99" t="n">
+        <v>173.3200073242188</v>
+      </c>
+      <c r="F99" t="n">
+        <v>173.3200073242188</v>
+      </c>
+      <c r="G99" t="n">
+        <v>233242</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>26</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>30</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B100" t="n">
+        <v>174.9900054931641</v>
+      </c>
+      <c r="C100" t="n">
+        <v>175.4799957275391</v>
+      </c>
+      <c r="D100" t="n">
+        <v>170.5700073242188</v>
+      </c>
+      <c r="E100" t="n">
+        <v>173.5700073242188</v>
+      </c>
+      <c r="F100" t="n">
+        <v>173.5700073242188</v>
+      </c>
+      <c r="G100" t="n">
+        <v>174180</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>29</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>31</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B101" t="n">
+        <v>173.5700073242188</v>
+      </c>
+      <c r="C101" t="n">
+        <v>179.6999969482422</v>
+      </c>
+      <c r="D101" t="n">
+        <v>171.25</v>
+      </c>
+      <c r="E101" t="n">
+        <v>177.2100067138672</v>
+      </c>
+      <c r="F101" t="n">
+        <v>177.2100067138672</v>
+      </c>
+      <c r="G101" t="n">
+        <v>351666</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>30</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>31</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B102" t="n">
+        <v>207.9799957275391</v>
+      </c>
+      <c r="C102" t="n">
+        <v>207.9799957275391</v>
+      </c>
+      <c r="D102" t="n">
+        <v>190</v>
+      </c>
+      <c r="E102" t="n">
+        <v>190.7299957275391</v>
+      </c>
+      <c r="F102" t="n">
+        <v>190.7299957275391</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2420895</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I102" t="n">
+        <v>7</v>
+      </c>
+      <c r="J102" t="n">
+        <v>31</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>31</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B103" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>195.6699981689453</v>
+      </c>
+      <c r="D103" t="n">
+        <v>190</v>
+      </c>
+      <c r="E103" t="n">
+        <v>192.4400024414062</v>
+      </c>
+      <c r="F103" t="n">
+        <v>192.4400024414062</v>
+      </c>
+      <c r="G103" t="n">
+        <v>754434</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I103" t="n">
+        <v>8</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>31</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B104" t="n">
+        <v>189.9900054931641</v>
+      </c>
+      <c r="C104" t="n">
+        <v>192</v>
+      </c>
+      <c r="D104" t="n">
+        <v>188</v>
+      </c>
+      <c r="E104" t="n">
+        <v>191.4700012207031</v>
+      </c>
+      <c r="F104" t="n">
+        <v>191.4700012207031</v>
+      </c>
+      <c r="G104" t="n">
+        <v>369421</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I104" t="n">
+        <v>8</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>31</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5789,7 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5835,7 +5837,7 @@
         <v>30</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5843,7 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5897,7 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5951,7 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -6005,7 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -6059,7 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -6113,7 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -6167,7 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="R102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -6221,7 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
-      <c r="R103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -6275,7 +6293,279 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B105" t="n">
+        <v>185.1499938964844</v>
+      </c>
+      <c r="C105" t="n">
+        <v>188.9499969482422</v>
+      </c>
+      <c r="D105" t="n">
+        <v>180.6799926757812</v>
+      </c>
+      <c r="E105" t="n">
+        <v>182.6799926757812</v>
+      </c>
+      <c r="F105" t="n">
+        <v>182.6799926757812</v>
+      </c>
+      <c r="G105" t="n">
+        <v>483995</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I105" t="n">
+        <v>8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>32</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B106" t="n">
+        <v>184.4900054931641</v>
+      </c>
+      <c r="C106" t="n">
+        <v>187.3800048828125</v>
+      </c>
+      <c r="D106" t="n">
+        <v>178.3099975585938</v>
+      </c>
+      <c r="E106" t="n">
+        <v>179.5599975585938</v>
+      </c>
+      <c r="F106" t="n">
+        <v>179.5599975585938</v>
+      </c>
+      <c r="G106" t="n">
+        <v>299313</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I106" t="n">
+        <v>8</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>32</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B107" t="n">
+        <v>185</v>
+      </c>
+      <c r="C107" t="n">
+        <v>185</v>
+      </c>
+      <c r="D107" t="n">
+        <v>178.6100006103516</v>
+      </c>
+      <c r="E107" t="n">
+        <v>183.1000061035156</v>
+      </c>
+      <c r="F107" t="n">
+        <v>183.1000061035156</v>
+      </c>
+      <c r="G107" t="n">
+        <v>228002</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8</v>
+      </c>
+      <c r="J107" t="n">
+        <v>7</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>32</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B108" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>188.5899963378906</v>
+      </c>
+      <c r="D108" t="n">
+        <v>182.4600067138672</v>
+      </c>
+      <c r="E108" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>229194</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I108" t="n">
+        <v>8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>32</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B109" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="C109" t="n">
+        <v>187.6999969482422</v>
+      </c>
+      <c r="D109" t="n">
+        <v>183</v>
+      </c>
+      <c r="E109" t="n">
+        <v>184.5299987792969</v>
+      </c>
+      <c r="F109" t="n">
+        <v>184.5299987792969</v>
+      </c>
+      <c r="G109" t="n">
+        <v>194878</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I109" t="n">
+        <v>8</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>32</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6173,7 +6173,7 @@
         <v>31</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -6349,7 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6403,7 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6457,7 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
-      <c r="R107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6511,7 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6565,7 +6573,225 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B110" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>186.4700012207031</v>
+      </c>
+      <c r="D110" t="n">
+        <v>182.1100006103516</v>
+      </c>
+      <c r="E110" t="n">
+        <v>184.9499969482422</v>
+      </c>
+      <c r="F110" t="n">
+        <v>184.9499969482422</v>
+      </c>
+      <c r="G110" t="n">
+        <v>136776</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I110" t="n">
+        <v>8</v>
+      </c>
+      <c r="J110" t="n">
+        <v>12</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>33</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B111" t="n">
+        <v>187.7899932861328</v>
+      </c>
+      <c r="C111" t="n">
+        <v>192.3899993896484</v>
+      </c>
+      <c r="D111" t="n">
+        <v>181.3200073242188</v>
+      </c>
+      <c r="E111" t="n">
+        <v>182.4499969482422</v>
+      </c>
+      <c r="F111" t="n">
+        <v>182.4499969482422</v>
+      </c>
+      <c r="G111" t="n">
+        <v>274795</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I111" t="n">
+        <v>8</v>
+      </c>
+      <c r="J111" t="n">
+        <v>13</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>33</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B112" t="n">
+        <v>180</v>
+      </c>
+      <c r="C112" t="n">
+        <v>181</v>
+      </c>
+      <c r="D112" t="n">
+        <v>174</v>
+      </c>
+      <c r="E112" t="n">
+        <v>174.6999969482422</v>
+      </c>
+      <c r="F112" t="n">
+        <v>174.6999969482422</v>
+      </c>
+      <c r="G112" t="n">
+        <v>295920</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I112" t="n">
+        <v>8</v>
+      </c>
+      <c r="J112" t="n">
+        <v>14</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>33</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B113" t="n">
+        <v>175</v>
+      </c>
+      <c r="C113" t="n">
+        <v>177</v>
+      </c>
+      <c r="D113" t="n">
+        <v>169.6100006103516</v>
+      </c>
+      <c r="E113" t="n">
+        <v>170.5299987792969</v>
+      </c>
+      <c r="F113" t="n">
+        <v>170.5299987792969</v>
+      </c>
+      <c r="G113" t="n">
+        <v>223575</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I113" t="n">
+        <v>8</v>
+      </c>
+      <c r="J113" t="n">
+        <v>16</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>33</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6629,7 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6683,7 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6737,7 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6791,7 +6797,279 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B114" t="n">
+        <v>173.1000061035156</v>
+      </c>
+      <c r="C114" t="n">
+        <v>194.8999938964844</v>
+      </c>
+      <c r="D114" t="n">
+        <v>173.1000061035156</v>
+      </c>
+      <c r="E114" t="n">
+        <v>192.1199951171875</v>
+      </c>
+      <c r="F114" t="n">
+        <v>192.1199951171875</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3946809</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I114" t="n">
+        <v>8</v>
+      </c>
+      <c r="J114" t="n">
+        <v>19</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>34</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B115" t="n">
+        <v>198.8999938964844</v>
+      </c>
+      <c r="C115" t="n">
+        <v>208.4499969482422</v>
+      </c>
+      <c r="D115" t="n">
+        <v>192</v>
+      </c>
+      <c r="E115" t="n">
+        <v>193.8600006103516</v>
+      </c>
+      <c r="F115" t="n">
+        <v>193.8600006103516</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2932666</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I115" t="n">
+        <v>8</v>
+      </c>
+      <c r="J115" t="n">
+        <v>20</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>34</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B116" t="n">
+        <v>195.4900054931641</v>
+      </c>
+      <c r="C116" t="n">
+        <v>199.2799987792969</v>
+      </c>
+      <c r="D116" t="n">
+        <v>193.9900054931641</v>
+      </c>
+      <c r="E116" t="n">
+        <v>196.6199951171875</v>
+      </c>
+      <c r="F116" t="n">
+        <v>196.6199951171875</v>
+      </c>
+      <c r="G116" t="n">
+        <v>746309</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I116" t="n">
+        <v>8</v>
+      </c>
+      <c r="J116" t="n">
+        <v>21</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>34</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B117" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>192.1000061035156</v>
+      </c>
+      <c r="E117" t="n">
+        <v>193.5099945068359</v>
+      </c>
+      <c r="F117" t="n">
+        <v>193.5099945068359</v>
+      </c>
+      <c r="G117" t="n">
+        <v>387968</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I117" t="n">
+        <v>8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>22</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>34</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B118" t="n">
+        <v>193.1000061035156</v>
+      </c>
+      <c r="C118" t="n">
+        <v>194</v>
+      </c>
+      <c r="D118" t="n">
+        <v>187.8500061035156</v>
+      </c>
+      <c r="E118" t="n">
+        <v>188.7100067138672</v>
+      </c>
+      <c r="F118" t="n">
+        <v>188.7100067138672</v>
+      </c>
+      <c r="G118" t="n">
+        <v>429287</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I118" t="n">
+        <v>8</v>
+      </c>
+      <c r="J118" t="n">
+        <v>23</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>34</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6789,7 +6789,7 @@
         <v>33</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -6853,7 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6907,7 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6961,7 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -7015,7 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -7069,7 +7077,279 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B119" t="n">
+        <v>191.5500030517578</v>
+      </c>
+      <c r="C119" t="n">
+        <v>191.7700042724609</v>
+      </c>
+      <c r="D119" t="n">
+        <v>185.5599975585938</v>
+      </c>
+      <c r="E119" t="n">
+        <v>186.3699951171875</v>
+      </c>
+      <c r="F119" t="n">
+        <v>186.3699951171875</v>
+      </c>
+      <c r="G119" t="n">
+        <v>293398</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I119" t="n">
+        <v>8</v>
+      </c>
+      <c r="J119" t="n">
+        <v>26</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>35</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B120" t="n">
+        <v>183.6399993896484</v>
+      </c>
+      <c r="C120" t="n">
+        <v>188.9400024414062</v>
+      </c>
+      <c r="D120" t="n">
+        <v>183.3300018310547</v>
+      </c>
+      <c r="E120" t="n">
+        <v>184.1000061035156</v>
+      </c>
+      <c r="F120" t="n">
+        <v>184.1000061035156</v>
+      </c>
+      <c r="G120" t="n">
+        <v>258530</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I120" t="n">
+        <v>8</v>
+      </c>
+      <c r="J120" t="n">
+        <v>27</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>35</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B121" t="n">
+        <v>186</v>
+      </c>
+      <c r="C121" t="n">
+        <v>193.75</v>
+      </c>
+      <c r="D121" t="n">
+        <v>184.5500030517578</v>
+      </c>
+      <c r="E121" t="n">
+        <v>185.4600067138672</v>
+      </c>
+      <c r="F121" t="n">
+        <v>185.4600067138672</v>
+      </c>
+      <c r="G121" t="n">
+        <v>545079</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I121" t="n">
+        <v>8</v>
+      </c>
+      <c r="J121" t="n">
+        <v>28</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>35</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B122" t="n">
+        <v>187.3000030517578</v>
+      </c>
+      <c r="C122" t="n">
+        <v>187.7400054931641</v>
+      </c>
+      <c r="D122" t="n">
+        <v>183.3699951171875</v>
+      </c>
+      <c r="E122" t="n">
+        <v>184.5299987792969</v>
+      </c>
+      <c r="F122" t="n">
+        <v>184.5299987792969</v>
+      </c>
+      <c r="G122" t="n">
+        <v>198146</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I122" t="n">
+        <v>8</v>
+      </c>
+      <c r="J122" t="n">
+        <v>29</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>35</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B123" t="n">
+        <v>184.75</v>
+      </c>
+      <c r="C123" t="n">
+        <v>189.8399963378906</v>
+      </c>
+      <c r="D123" t="n">
+        <v>183.6999969482422</v>
+      </c>
+      <c r="E123" t="n">
+        <v>187.3800048828125</v>
+      </c>
+      <c r="F123" t="n">
+        <v>187.3800048828125</v>
+      </c>
+      <c r="G123" t="n">
+        <v>239679</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I123" t="n">
+        <v>8</v>
+      </c>
+      <c r="J123" t="n">
+        <v>30</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>35</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R123"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6901,7 +6901,7 @@
         <v>34</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -7133,7 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
-      <c r="R119" t="inlineStr"/>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -7187,7 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
-      <c r="R120" t="inlineStr"/>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -7241,7 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
-      <c r="R121" t="inlineStr"/>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -7295,7 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
-      <c r="R122" t="inlineStr"/>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -7349,7 +7357,279 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
-      <c r="R123" t="inlineStr"/>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B124" t="n">
+        <v>189</v>
+      </c>
+      <c r="C124" t="n">
+        <v>189.8999938964844</v>
+      </c>
+      <c r="D124" t="n">
+        <v>186</v>
+      </c>
+      <c r="E124" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="F124" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="G124" t="n">
+        <v>184508</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I124" t="n">
+        <v>9</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>36</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B125" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="C125" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="D125" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>180.6399993896484</v>
+      </c>
+      <c r="F125" t="n">
+        <v>180.6399993896484</v>
+      </c>
+      <c r="G125" t="n">
+        <v>308975</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I125" t="n">
+        <v>9</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>36</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B126" t="n">
+        <v>181.4400024414062</v>
+      </c>
+      <c r="C126" t="n">
+        <v>183.7899932861328</v>
+      </c>
+      <c r="D126" t="n">
+        <v>179</v>
+      </c>
+      <c r="E126" t="n">
+        <v>182.8800048828125</v>
+      </c>
+      <c r="F126" t="n">
+        <v>182.8800048828125</v>
+      </c>
+      <c r="G126" t="n">
+        <v>163556</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I126" t="n">
+        <v>9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>36</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>2</v>
+      </c>
+      <c r="R126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B127" t="n">
+        <v>182.8800048828125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>186.7899932861328</v>
+      </c>
+      <c r="D127" t="n">
+        <v>182.0500030517578</v>
+      </c>
+      <c r="E127" t="n">
+        <v>182.3200073242188</v>
+      </c>
+      <c r="F127" t="n">
+        <v>182.3200073242188</v>
+      </c>
+      <c r="G127" t="n">
+        <v>163652</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I127" t="n">
+        <v>9</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>36</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B128" t="n">
+        <v>183.6000061035156</v>
+      </c>
+      <c r="C128" t="n">
+        <v>184.1399993896484</v>
+      </c>
+      <c r="D128" t="n">
+        <v>180.0500030517578</v>
+      </c>
+      <c r="E128" t="n">
+        <v>180.5899963378906</v>
+      </c>
+      <c r="F128" t="n">
+        <v>180.5899963378906</v>
+      </c>
+      <c r="G128" t="n">
+        <v>150917</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I128" t="n">
+        <v>9</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>36</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R128"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7413,7 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="R124" t="inlineStr"/>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7467,7 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
-      <c r="R125" t="inlineStr"/>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7521,7 +7525,9 @@
       <c r="Q126" t="n">
         <v>2</v>
       </c>
-      <c r="R126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7575,7 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
-      <c r="R127" t="inlineStr"/>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7629,7 +7637,279 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B129" t="n">
+        <v>183.2899932861328</v>
+      </c>
+      <c r="C129" t="n">
+        <v>183.2899932861328</v>
+      </c>
+      <c r="D129" t="n">
+        <v>177.8999938964844</v>
+      </c>
+      <c r="E129" t="n">
+        <v>179.1300048828125</v>
+      </c>
+      <c r="F129" t="n">
+        <v>179.1300048828125</v>
+      </c>
+      <c r="G129" t="n">
+        <v>152533</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I129" t="n">
+        <v>9</v>
+      </c>
+      <c r="J129" t="n">
+        <v>9</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>37</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B130" t="n">
+        <v>181.0200042724609</v>
+      </c>
+      <c r="C130" t="n">
+        <v>183.2899932861328</v>
+      </c>
+      <c r="D130" t="n">
+        <v>176.6000061035156</v>
+      </c>
+      <c r="E130" t="n">
+        <v>177.3600006103516</v>
+      </c>
+      <c r="F130" t="n">
+        <v>177.3600006103516</v>
+      </c>
+      <c r="G130" t="n">
+        <v>203215</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9</v>
+      </c>
+      <c r="J130" t="n">
+        <v>10</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>37</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B131" t="n">
+        <v>178.8300018310547</v>
+      </c>
+      <c r="C131" t="n">
+        <v>183</v>
+      </c>
+      <c r="D131" t="n">
+        <v>178.1999969482422</v>
+      </c>
+      <c r="E131" t="n">
+        <v>179.6399993896484</v>
+      </c>
+      <c r="F131" t="n">
+        <v>179.6399993896484</v>
+      </c>
+      <c r="G131" t="n">
+        <v>155741</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I131" t="n">
+        <v>9</v>
+      </c>
+      <c r="J131" t="n">
+        <v>11</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>37</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B132" t="n">
+        <v>181.3300018310547</v>
+      </c>
+      <c r="C132" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>180.1600036621094</v>
+      </c>
+      <c r="E132" t="n">
+        <v>194.4900054931641</v>
+      </c>
+      <c r="F132" t="n">
+        <v>194.4900054931641</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7153427</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9</v>
+      </c>
+      <c r="J132" t="n">
+        <v>12</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>37</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B133" t="n">
+        <v>196.8000030517578</v>
+      </c>
+      <c r="C133" t="n">
+        <v>200.6399993896484</v>
+      </c>
+      <c r="D133" t="n">
+        <v>186.2599945068359</v>
+      </c>
+      <c r="E133" t="n">
+        <v>188.1100006103516</v>
+      </c>
+      <c r="F133" t="n">
+        <v>188.1100006103516</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1879854</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I133" t="n">
+        <v>9</v>
+      </c>
+      <c r="J133" t="n">
+        <v>13</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>37</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7693,7 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="R129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7747,7 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
-      <c r="R130" t="inlineStr"/>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7801,7 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7855,7 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7909,7 +7917,279 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B134" t="n">
+        <v>191.9700012207031</v>
+      </c>
+      <c r="C134" t="n">
+        <v>199.0599975585938</v>
+      </c>
+      <c r="D134" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>190</v>
+      </c>
+      <c r="F134" t="n">
+        <v>190</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1215695</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I134" t="n">
+        <v>9</v>
+      </c>
+      <c r="J134" t="n">
+        <v>16</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>38</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B135" t="n">
+        <v>191.3999938964844</v>
+      </c>
+      <c r="C135" t="n">
+        <v>191.8999938964844</v>
+      </c>
+      <c r="D135" t="n">
+        <v>187.3300018310547</v>
+      </c>
+      <c r="E135" t="n">
+        <v>190.3099975585938</v>
+      </c>
+      <c r="F135" t="n">
+        <v>190.3099975585938</v>
+      </c>
+      <c r="G135" t="n">
+        <v>379702</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I135" t="n">
+        <v>9</v>
+      </c>
+      <c r="J135" t="n">
+        <v>17</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>38</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B136" t="n">
+        <v>193</v>
+      </c>
+      <c r="C136" t="n">
+        <v>194.6999969482422</v>
+      </c>
+      <c r="D136" t="n">
+        <v>185.6999969482422</v>
+      </c>
+      <c r="E136" t="n">
+        <v>186.6600036621094</v>
+      </c>
+      <c r="F136" t="n">
+        <v>186.6600036621094</v>
+      </c>
+      <c r="G136" t="n">
+        <v>454539</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9</v>
+      </c>
+      <c r="J136" t="n">
+        <v>18</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>38</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B137" t="n">
+        <v>187.6000061035156</v>
+      </c>
+      <c r="C137" t="n">
+        <v>188.9900054931641</v>
+      </c>
+      <c r="D137" t="n">
+        <v>181</v>
+      </c>
+      <c r="E137" t="n">
+        <v>184.6799926757812</v>
+      </c>
+      <c r="F137" t="n">
+        <v>184.6799926757812</v>
+      </c>
+      <c r="G137" t="n">
+        <v>292426</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I137" t="n">
+        <v>9</v>
+      </c>
+      <c r="J137" t="n">
+        <v>19</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>38</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B138" t="n">
+        <v>185.4499969482422</v>
+      </c>
+      <c r="C138" t="n">
+        <v>186.4900054931641</v>
+      </c>
+      <c r="D138" t="n">
+        <v>181.9499969482422</v>
+      </c>
+      <c r="E138" t="n">
+        <v>182.7799987792969</v>
+      </c>
+      <c r="F138" t="n">
+        <v>182.7799987792969</v>
+      </c>
+      <c r="G138" t="n">
+        <v>294513</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I138" t="n">
+        <v>9</v>
+      </c>
+      <c r="J138" t="n">
+        <v>20</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>38</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7741,7 +7741,7 @@
         <v>37</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
@@ -7853,7 +7853,7 @@
         <v>37</v>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
@@ -7973,7 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
-      <c r="R134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -8027,7 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -8081,7 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -8135,7 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -8189,7 +8197,279 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
-      <c r="R138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B139" t="n">
+        <v>183.9900054931641</v>
+      </c>
+      <c r="C139" t="n">
+        <v>187.9299926757812</v>
+      </c>
+      <c r="D139" t="n">
+        <v>182.9100036621094</v>
+      </c>
+      <c r="E139" t="n">
+        <v>183.7700042724609</v>
+      </c>
+      <c r="F139" t="n">
+        <v>183.7700042724609</v>
+      </c>
+      <c r="G139" t="n">
+        <v>352351</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I139" t="n">
+        <v>9</v>
+      </c>
+      <c r="J139" t="n">
+        <v>23</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>39</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B140" t="n">
+        <v>184.4499969482422</v>
+      </c>
+      <c r="C140" t="n">
+        <v>186.8000030517578</v>
+      </c>
+      <c r="D140" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>182.0099945068359</v>
+      </c>
+      <c r="F140" t="n">
+        <v>182.0099945068359</v>
+      </c>
+      <c r="G140" t="n">
+        <v>354818</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I140" t="n">
+        <v>9</v>
+      </c>
+      <c r="J140" t="n">
+        <v>24</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>39</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B141" t="n">
+        <v>183</v>
+      </c>
+      <c r="C141" t="n">
+        <v>189</v>
+      </c>
+      <c r="D141" t="n">
+        <v>180.6000061035156</v>
+      </c>
+      <c r="E141" t="n">
+        <v>185.75</v>
+      </c>
+      <c r="F141" t="n">
+        <v>185.75</v>
+      </c>
+      <c r="G141" t="n">
+        <v>643962</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I141" t="n">
+        <v>9</v>
+      </c>
+      <c r="J141" t="n">
+        <v>25</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>39</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B142" t="n">
+        <v>186.8500061035156</v>
+      </c>
+      <c r="C142" t="n">
+        <v>191.2799987792969</v>
+      </c>
+      <c r="D142" t="n">
+        <v>183.1000061035156</v>
+      </c>
+      <c r="E142" t="n">
+        <v>187.0099945068359</v>
+      </c>
+      <c r="F142" t="n">
+        <v>187.0099945068359</v>
+      </c>
+      <c r="G142" t="n">
+        <v>475297</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I142" t="n">
+        <v>9</v>
+      </c>
+      <c r="J142" t="n">
+        <v>26</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>39</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B143" t="n">
+        <v>186</v>
+      </c>
+      <c r="C143" t="n">
+        <v>187.8099975585938</v>
+      </c>
+      <c r="D143" t="n">
+        <v>182</v>
+      </c>
+      <c r="E143" t="n">
+        <v>183.3300018310547</v>
+      </c>
+      <c r="F143" t="n">
+        <v>183.3300018310547</v>
+      </c>
+      <c r="G143" t="n">
+        <v>217864</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I143" t="n">
+        <v>9</v>
+      </c>
+      <c r="J143" t="n">
+        <v>27</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>39</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R143"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8253,7 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -8307,7 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -8361,7 +8365,9 @@
       <c r="Q141" t="n">
         <v>1</v>
       </c>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -8415,7 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8469,7 +8477,225 @@
       <c r="Q143" t="n">
         <v>2</v>
       </c>
-      <c r="R143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B144" t="n">
+        <v>184.9900054931641</v>
+      </c>
+      <c r="C144" t="n">
+        <v>184.9900054931641</v>
+      </c>
+      <c r="D144" t="n">
+        <v>180.1100006103516</v>
+      </c>
+      <c r="E144" t="n">
+        <v>181.5599975585938</v>
+      </c>
+      <c r="F144" t="n">
+        <v>181.5599975585938</v>
+      </c>
+      <c r="G144" t="n">
+        <v>175359</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I144" t="n">
+        <v>9</v>
+      </c>
+      <c r="J144" t="n">
+        <v>30</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>40</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B145" t="n">
+        <v>181.5500030517578</v>
+      </c>
+      <c r="C145" t="n">
+        <v>187</v>
+      </c>
+      <c r="D145" t="n">
+        <v>181.5500030517578</v>
+      </c>
+      <c r="E145" t="n">
+        <v>183.1000061035156</v>
+      </c>
+      <c r="F145" t="n">
+        <v>183.1000061035156</v>
+      </c>
+      <c r="G145" t="n">
+        <v>177006</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I145" t="n">
+        <v>10</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>40</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B146" t="n">
+        <v>180</v>
+      </c>
+      <c r="C146" t="n">
+        <v>181.8999938964844</v>
+      </c>
+      <c r="D146" t="n">
+        <v>177.0299987792969</v>
+      </c>
+      <c r="E146" t="n">
+        <v>178.0299987792969</v>
+      </c>
+      <c r="F146" t="n">
+        <v>178.0299987792969</v>
+      </c>
+      <c r="G146" t="n">
+        <v>213416</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I146" t="n">
+        <v>10</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>40</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B147" t="n">
+        <v>178.5899963378906</v>
+      </c>
+      <c r="C147" t="n">
+        <v>182</v>
+      </c>
+      <c r="D147" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="E147" t="n">
+        <v>177.7899932861328</v>
+      </c>
+      <c r="F147" t="n">
+        <v>177.7899932861328</v>
+      </c>
+      <c r="G147" t="n">
+        <v>190131</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I147" t="n">
+        <v>10</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>40</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:R152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8533,7 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="inlineStr"/>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8587,7 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8641,7 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8695,7 +8701,279 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B148" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>170</v>
+      </c>
+      <c r="E148" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>191496</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I148" t="n">
+        <v>10</v>
+      </c>
+      <c r="J148" t="n">
+        <v>7</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>41</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B149" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>180.8999938964844</v>
+      </c>
+      <c r="D149" t="n">
+        <v>167.6999969482422</v>
+      </c>
+      <c r="E149" t="n">
+        <v>179.3099975585938</v>
+      </c>
+      <c r="F149" t="n">
+        <v>179.3099975585938</v>
+      </c>
+      <c r="G149" t="n">
+        <v>235056</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I149" t="n">
+        <v>10</v>
+      </c>
+      <c r="J149" t="n">
+        <v>8</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>41</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B150" t="n">
+        <v>179.3099975585938</v>
+      </c>
+      <c r="C150" t="n">
+        <v>180.9299926757812</v>
+      </c>
+      <c r="D150" t="n">
+        <v>177.25</v>
+      </c>
+      <c r="E150" t="n">
+        <v>178.8000030517578</v>
+      </c>
+      <c r="F150" t="n">
+        <v>178.8000030517578</v>
+      </c>
+      <c r="G150" t="n">
+        <v>105681</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I150" t="n">
+        <v>10</v>
+      </c>
+      <c r="J150" t="n">
+        <v>9</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>41</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B151" t="n">
+        <v>178.8800048828125</v>
+      </c>
+      <c r="C151" t="n">
+        <v>185</v>
+      </c>
+      <c r="D151" t="n">
+        <v>172</v>
+      </c>
+      <c r="E151" t="n">
+        <v>181.4299926757812</v>
+      </c>
+      <c r="F151" t="n">
+        <v>181.4299926757812</v>
+      </c>
+      <c r="G151" t="n">
+        <v>206624</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I151" t="n">
+        <v>10</v>
+      </c>
+      <c r="J151" t="n">
+        <v>10</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>41</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B152" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="C152" t="n">
+        <v>181.3000030517578</v>
+      </c>
+      <c r="D152" t="n">
+        <v>179.1000061035156</v>
+      </c>
+      <c r="E152" t="n">
+        <v>180.1399993896484</v>
+      </c>
+      <c r="F152" t="n">
+        <v>180.1399993896484</v>
+      </c>
+      <c r="G152" t="n">
+        <v>74505</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I152" t="n">
+        <v>10</v>
+      </c>
+      <c r="J152" t="n">
+        <v>11</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>41</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R152"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8757,7 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
-      <c r="R148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8811,7 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8865,7 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8919,7 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
-      <c r="R151" t="inlineStr"/>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8973,7 +8981,279 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B153" t="n">
+        <v>180.1399993896484</v>
+      </c>
+      <c r="C153" t="n">
+        <v>182.1000061035156</v>
+      </c>
+      <c r="D153" t="n">
+        <v>177.1000061035156</v>
+      </c>
+      <c r="E153" t="n">
+        <v>178.6699981689453</v>
+      </c>
+      <c r="F153" t="n">
+        <v>178.6699981689453</v>
+      </c>
+      <c r="G153" t="n">
+        <v>91932</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I153" t="n">
+        <v>10</v>
+      </c>
+      <c r="J153" t="n">
+        <v>14</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>42</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B154" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="C154" t="n">
+        <v>181</v>
+      </c>
+      <c r="D154" t="n">
+        <v>176.5099945068359</v>
+      </c>
+      <c r="E154" t="n">
+        <v>177.1300048828125</v>
+      </c>
+      <c r="F154" t="n">
+        <v>177.1300048828125</v>
+      </c>
+      <c r="G154" t="n">
+        <v>100415</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I154" t="n">
+        <v>10</v>
+      </c>
+      <c r="J154" t="n">
+        <v>15</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>42</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B155" t="n">
+        <v>176.8999938964844</v>
+      </c>
+      <c r="C155" t="n">
+        <v>178.4600067138672</v>
+      </c>
+      <c r="D155" t="n">
+        <v>175</v>
+      </c>
+      <c r="E155" t="n">
+        <v>176.5700073242188</v>
+      </c>
+      <c r="F155" t="n">
+        <v>176.5700073242188</v>
+      </c>
+      <c r="G155" t="n">
+        <v>94286</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I155" t="n">
+        <v>10</v>
+      </c>
+      <c r="J155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>42</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B156" t="n">
+        <v>176.9900054931641</v>
+      </c>
+      <c r="C156" t="n">
+        <v>178.8999938964844</v>
+      </c>
+      <c r="D156" t="n">
+        <v>175</v>
+      </c>
+      <c r="E156" t="n">
+        <v>175.5500030517578</v>
+      </c>
+      <c r="F156" t="n">
+        <v>175.5500030517578</v>
+      </c>
+      <c r="G156" t="n">
+        <v>70827</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I156" t="n">
+        <v>10</v>
+      </c>
+      <c r="J156" t="n">
+        <v>17</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>42</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B157" t="n">
+        <v>174.9600067138672</v>
+      </c>
+      <c r="C157" t="n">
+        <v>174.9600067138672</v>
+      </c>
+      <c r="D157" t="n">
+        <v>172.0099945068359</v>
+      </c>
+      <c r="E157" t="n">
+        <v>172.8000030517578</v>
+      </c>
+      <c r="F157" t="n">
+        <v>172.8000030517578</v>
+      </c>
+      <c r="G157" t="n">
+        <v>107644</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I157" t="n">
+        <v>10</v>
+      </c>
+      <c r="J157" t="n">
+        <v>18</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>42</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R157"/>
+  <dimension ref="A1:R162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9037,7 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -9091,7 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="inlineStr"/>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -9145,7 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
-      <c r="R155" t="inlineStr"/>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -9199,7 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="inlineStr"/>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -9253,7 +9261,279 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="inlineStr"/>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B158" t="n">
+        <v>172.3099975585938</v>
+      </c>
+      <c r="C158" t="n">
+        <v>174</v>
+      </c>
+      <c r="D158" t="n">
+        <v>166.8000030517578</v>
+      </c>
+      <c r="E158" t="n">
+        <v>167.7599945068359</v>
+      </c>
+      <c r="F158" t="n">
+        <v>167.7599945068359</v>
+      </c>
+      <c r="G158" t="n">
+        <v>127658</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J158" t="n">
+        <v>21</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>43</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B159" t="n">
+        <v>167</v>
+      </c>
+      <c r="C159" t="n">
+        <v>168.6600036621094</v>
+      </c>
+      <c r="D159" t="n">
+        <v>160.7899932861328</v>
+      </c>
+      <c r="E159" t="n">
+        <v>163.0399932861328</v>
+      </c>
+      <c r="F159" t="n">
+        <v>163.0399932861328</v>
+      </c>
+      <c r="G159" t="n">
+        <v>202361</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J159" t="n">
+        <v>22</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>43</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B160" t="n">
+        <v>163</v>
+      </c>
+      <c r="C160" t="n">
+        <v>165.6000061035156</v>
+      </c>
+      <c r="D160" t="n">
+        <v>160.2100067138672</v>
+      </c>
+      <c r="E160" t="n">
+        <v>161.9400024414062</v>
+      </c>
+      <c r="F160" t="n">
+        <v>161.9400024414062</v>
+      </c>
+      <c r="G160" t="n">
+        <v>144015</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J160" t="n">
+        <v>23</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B161" t="n">
+        <v>163.8000030517578</v>
+      </c>
+      <c r="C161" t="n">
+        <v>164.2899932861328</v>
+      </c>
+      <c r="D161" t="n">
+        <v>158.7100067138672</v>
+      </c>
+      <c r="E161" t="n">
+        <v>160.3999938964844</v>
+      </c>
+      <c r="F161" t="n">
+        <v>160.3999938964844</v>
+      </c>
+      <c r="G161" t="n">
+        <v>134037</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J161" t="n">
+        <v>24</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>43</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B162" t="n">
+        <v>160.3999938964844</v>
+      </c>
+      <c r="C162" t="n">
+        <v>160.8000030517578</v>
+      </c>
+      <c r="D162" t="n">
+        <v>152.4100036621094</v>
+      </c>
+      <c r="E162" t="n">
+        <v>154.5599975585938</v>
+      </c>
+      <c r="F162" t="n">
+        <v>154.5599975585938</v>
+      </c>
+      <c r="G162" t="n">
+        <v>429023</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I162" t="n">
+        <v>10</v>
+      </c>
+      <c r="J162" t="n">
+        <v>25</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>43</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R162"/>
+  <dimension ref="A1:R167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9317,7 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="inlineStr"/>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -9371,7 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="inlineStr"/>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -9425,7 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
-      <c r="R160" t="inlineStr"/>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9479,7 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
-      <c r="R161" t="inlineStr"/>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9533,7 +9541,279 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
-      <c r="R162" t="inlineStr"/>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B163" t="n">
+        <v>154</v>
+      </c>
+      <c r="C163" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>160.6699981689453</v>
+      </c>
+      <c r="F163" t="n">
+        <v>160.6699981689453</v>
+      </c>
+      <c r="G163" t="n">
+        <v>355868</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I163" t="n">
+        <v>10</v>
+      </c>
+      <c r="J163" t="n">
+        <v>28</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>44</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B164" t="n">
+        <v>160.0099945068359</v>
+      </c>
+      <c r="C164" t="n">
+        <v>164.2100067138672</v>
+      </c>
+      <c r="D164" t="n">
+        <v>157.6000061035156</v>
+      </c>
+      <c r="E164" t="n">
+        <v>163.6499938964844</v>
+      </c>
+      <c r="F164" t="n">
+        <v>163.6499938964844</v>
+      </c>
+      <c r="G164" t="n">
+        <v>105828</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J164" t="n">
+        <v>29</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>44</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B165" t="n">
+        <v>164</v>
+      </c>
+      <c r="C165" t="n">
+        <v>174.8899993896484</v>
+      </c>
+      <c r="D165" t="n">
+        <v>162.5099945068359</v>
+      </c>
+      <c r="E165" t="n">
+        <v>169.6799926757812</v>
+      </c>
+      <c r="F165" t="n">
+        <v>169.6799926757812</v>
+      </c>
+      <c r="G165" t="n">
+        <v>302185</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J165" t="n">
+        <v>30</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>44</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B166" t="n">
+        <v>169.3999938964844</v>
+      </c>
+      <c r="C166" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="D166" t="n">
+        <v>168.6199951171875</v>
+      </c>
+      <c r="E166" t="n">
+        <v>171.1100006103516</v>
+      </c>
+      <c r="F166" t="n">
+        <v>171.1100006103516</v>
+      </c>
+      <c r="G166" t="n">
+        <v>121532</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J166" t="n">
+        <v>31</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>44</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B167" t="n">
+        <v>174</v>
+      </c>
+      <c r="C167" t="n">
+        <v>174.3500061035156</v>
+      </c>
+      <c r="D167" t="n">
+        <v>173.1399993896484</v>
+      </c>
+      <c r="E167" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="F167" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="G167" t="n">
+        <v>3993</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I167" t="n">
+        <v>11</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:R172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9597,7 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
-      <c r="R163" t="inlineStr"/>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9651,7 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
-      <c r="R164" t="inlineStr"/>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9705,7 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
-      <c r="R165" t="inlineStr"/>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9759,7 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="inlineStr"/>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9813,7 +9821,279 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="inlineStr"/>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B168" t="n">
+        <v>176.25</v>
+      </c>
+      <c r="C168" t="n">
+        <v>176.25</v>
+      </c>
+      <c r="D168" t="n">
+        <v>168</v>
+      </c>
+      <c r="E168" t="n">
+        <v>172.8500061035156</v>
+      </c>
+      <c r="F168" t="n">
+        <v>172.8500061035156</v>
+      </c>
+      <c r="G168" t="n">
+        <v>204759</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J168" t="n">
+        <v>4</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B169" t="n">
+        <v>173</v>
+      </c>
+      <c r="C169" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="D169" t="n">
+        <v>170</v>
+      </c>
+      <c r="E169" t="n">
+        <v>172.5500030517578</v>
+      </c>
+      <c r="F169" t="n">
+        <v>172.5500030517578</v>
+      </c>
+      <c r="G169" t="n">
+        <v>115024</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J169" t="n">
+        <v>5</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>45</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B170" t="n">
+        <v>174.4700012207031</v>
+      </c>
+      <c r="C170" t="n">
+        <v>176</v>
+      </c>
+      <c r="D170" t="n">
+        <v>172.2100067138672</v>
+      </c>
+      <c r="E170" t="n">
+        <v>174.0899963378906</v>
+      </c>
+      <c r="F170" t="n">
+        <v>174.0899963378906</v>
+      </c>
+      <c r="G170" t="n">
+        <v>98389</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J170" t="n">
+        <v>6</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>45</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B171" t="n">
+        <v>174.0899963378906</v>
+      </c>
+      <c r="C171" t="n">
+        <v>176.8999938964844</v>
+      </c>
+      <c r="D171" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>174</v>
+      </c>
+      <c r="F171" t="n">
+        <v>174</v>
+      </c>
+      <c r="G171" t="n">
+        <v>126112</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J171" t="n">
+        <v>7</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>45</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B172" t="n">
+        <v>174</v>
+      </c>
+      <c r="C172" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>173.0599975585938</v>
+      </c>
+      <c r="E172" t="n">
+        <v>174.7299957275391</v>
+      </c>
+      <c r="F172" t="n">
+        <v>174.7299957275391</v>
+      </c>
+      <c r="G172" t="n">
+        <v>72595</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I172" t="n">
+        <v>11</v>
+      </c>
+      <c r="J172" t="n">
+        <v>8</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>45</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R172"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9589,7 +9589,7 @@
         <v>44</v>
       </c>
       <c r="O163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
@@ -9877,7 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="inlineStr"/>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9931,7 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
-      <c r="R169" t="inlineStr"/>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9985,7 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
-      <c r="R170" t="inlineStr"/>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -10039,7 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="inlineStr"/>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -10093,7 +10101,225 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
-      <c r="R172" t="inlineStr"/>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B173" t="n">
+        <v>174.6999969482422</v>
+      </c>
+      <c r="C173" t="n">
+        <v>180</v>
+      </c>
+      <c r="D173" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>174.5599975585938</v>
+      </c>
+      <c r="F173" t="n">
+        <v>174.5599975585938</v>
+      </c>
+      <c r="G173" t="n">
+        <v>249330</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I173" t="n">
+        <v>11</v>
+      </c>
+      <c r="J173" t="n">
+        <v>11</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>46</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B174" t="n">
+        <v>173.25</v>
+      </c>
+      <c r="C174" t="n">
+        <v>175.9400024414062</v>
+      </c>
+      <c r="D174" t="n">
+        <v>168</v>
+      </c>
+      <c r="E174" t="n">
+        <v>169.5800018310547</v>
+      </c>
+      <c r="F174" t="n">
+        <v>169.5800018310547</v>
+      </c>
+      <c r="G174" t="n">
+        <v>102705</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I174" t="n">
+        <v>11</v>
+      </c>
+      <c r="J174" t="n">
+        <v>12</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>46</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>1</v>
+      </c>
+      <c r="R174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B175" t="n">
+        <v>170</v>
+      </c>
+      <c r="C175" t="n">
+        <v>170.0700073242188</v>
+      </c>
+      <c r="D175" t="n">
+        <v>163</v>
+      </c>
+      <c r="E175" t="n">
+        <v>163.5399932861328</v>
+      </c>
+      <c r="F175" t="n">
+        <v>163.5399932861328</v>
+      </c>
+      <c r="G175" t="n">
+        <v>106095</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I175" t="n">
+        <v>11</v>
+      </c>
+      <c r="J175" t="n">
+        <v>13</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>46</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B176" t="n">
+        <v>163</v>
+      </c>
+      <c r="C176" t="n">
+        <v>167.6000061035156</v>
+      </c>
+      <c r="D176" t="n">
+        <v>162.8099975585938</v>
+      </c>
+      <c r="E176" t="n">
+        <v>163.9900054931641</v>
+      </c>
+      <c r="F176" t="n">
+        <v>163.9900054931641</v>
+      </c>
+      <c r="G176" t="n">
+        <v>131815</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I176" t="n">
+        <v>11</v>
+      </c>
+      <c r="J176" t="n">
+        <v>14</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>46</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10157,7 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
-      <c r="R173" t="inlineStr"/>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -10211,7 +10213,9 @@
       <c r="Q174" t="n">
         <v>1</v>
       </c>
-      <c r="R174" t="inlineStr"/>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -10265,7 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
-      <c r="R175" t="inlineStr"/>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -10319,7 +10325,225 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
-      <c r="R176" t="inlineStr"/>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B177" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>165.1900024414062</v>
+      </c>
+      <c r="D177" t="n">
+        <v>160.1000061035156</v>
+      </c>
+      <c r="E177" t="n">
+        <v>161.3699951171875</v>
+      </c>
+      <c r="F177" t="n">
+        <v>161.3699951171875</v>
+      </c>
+      <c r="G177" t="n">
+        <v>116377</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I177" t="n">
+        <v>11</v>
+      </c>
+      <c r="J177" t="n">
+        <v>18</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>47</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B178" t="n">
+        <v>161.7899932861328</v>
+      </c>
+      <c r="C178" t="n">
+        <v>165</v>
+      </c>
+      <c r="D178" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>161.6199951171875</v>
+      </c>
+      <c r="F178" t="n">
+        <v>161.6199951171875</v>
+      </c>
+      <c r="G178" t="n">
+        <v>141102</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I178" t="n">
+        <v>11</v>
+      </c>
+      <c r="J178" t="n">
+        <v>19</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>47</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B179" t="n">
+        <v>161.25</v>
+      </c>
+      <c r="C179" t="n">
+        <v>169</v>
+      </c>
+      <c r="D179" t="n">
+        <v>158.1100006103516</v>
+      </c>
+      <c r="E179" t="n">
+        <v>166.9299926757812</v>
+      </c>
+      <c r="F179" t="n">
+        <v>166.9299926757812</v>
+      </c>
+      <c r="G179" t="n">
+        <v>142470</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I179" t="n">
+        <v>11</v>
+      </c>
+      <c r="J179" t="n">
+        <v>21</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>47</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B180" t="n">
+        <v>169.4499969482422</v>
+      </c>
+      <c r="C180" t="n">
+        <v>170.0200042724609</v>
+      </c>
+      <c r="D180" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>164.2799987792969</v>
+      </c>
+      <c r="F180" t="n">
+        <v>164.2799987792969</v>
+      </c>
+      <c r="G180" t="n">
+        <v>251630</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I180" t="n">
+        <v>11</v>
+      </c>
+      <c r="J180" t="n">
+        <v>22</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>47</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R180"/>
+  <dimension ref="A1:R185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10149,7 +10149,7 @@
         <v>46</v>
       </c>
       <c r="O173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P173" t="n">
         <v>0</v>
@@ -10381,7 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
-      <c r="R177" t="inlineStr"/>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -10435,7 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
-      <c r="R178" t="inlineStr"/>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -10489,7 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
-      <c r="R179" t="inlineStr"/>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10543,7 +10549,279 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B181" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>170.6000061035156</v>
+      </c>
+      <c r="D181" t="n">
+        <v>164.8000030517578</v>
+      </c>
+      <c r="E181" t="n">
+        <v>168.6999969482422</v>
+      </c>
+      <c r="F181" t="n">
+        <v>167.7303466796875</v>
+      </c>
+      <c r="G181" t="n">
+        <v>105370</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I181" t="n">
+        <v>11</v>
+      </c>
+      <c r="J181" t="n">
+        <v>25</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>48</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B182" t="n">
+        <v>168.3500061035156</v>
+      </c>
+      <c r="C182" t="n">
+        <v>172</v>
+      </c>
+      <c r="D182" t="n">
+        <v>168.0099945068359</v>
+      </c>
+      <c r="E182" t="n">
+        <v>170.9299926757812</v>
+      </c>
+      <c r="F182" t="n">
+        <v>169.9475250244141</v>
+      </c>
+      <c r="G182" t="n">
+        <v>75991</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I182" t="n">
+        <v>11</v>
+      </c>
+      <c r="J182" t="n">
+        <v>26</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>48</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B183" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>175</v>
+      </c>
+      <c r="D183" t="n">
+        <v>169.9199981689453</v>
+      </c>
+      <c r="E183" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="F183" t="n">
+        <v>172.9799957275391</v>
+      </c>
+      <c r="G183" t="n">
+        <v>105148</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I183" t="n">
+        <v>11</v>
+      </c>
+      <c r="J183" t="n">
+        <v>27</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>48</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B184" t="n">
+        <v>173.3200073242188</v>
+      </c>
+      <c r="C184" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>172.1900024414062</v>
+      </c>
+      <c r="E184" t="n">
+        <v>177.0500030517578</v>
+      </c>
+      <c r="F184" t="n">
+        <v>177.0500030517578</v>
+      </c>
+      <c r="G184" t="n">
+        <v>153897</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I184" t="n">
+        <v>11</v>
+      </c>
+      <c r="J184" t="n">
+        <v>28</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>48</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B185" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="C185" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="D185" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="E185" t="n">
+        <v>178.9100036621094</v>
+      </c>
+      <c r="F185" t="n">
+        <v>178.9100036621094</v>
+      </c>
+      <c r="G185" t="n">
+        <v>278839</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I185" t="n">
+        <v>11</v>
+      </c>
+      <c r="J185" t="n">
+        <v>29</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>48</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R185"/>
+  <dimension ref="A1:R190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10485,7 +10485,7 @@
         <v>47</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
@@ -10605,7 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
-      <c r="R181" t="inlineStr"/>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10659,7 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
-      <c r="R182" t="inlineStr"/>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10713,7 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
-      <c r="R183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10767,7 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10821,7 +10829,279 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B186" t="n">
+        <v>178.4299926757812</v>
+      </c>
+      <c r="C186" t="n">
+        <v>181.2599945068359</v>
+      </c>
+      <c r="D186" t="n">
+        <v>174.7599945068359</v>
+      </c>
+      <c r="E186" t="n">
+        <v>179.2599945068359</v>
+      </c>
+      <c r="F186" t="n">
+        <v>179.2599945068359</v>
+      </c>
+      <c r="G186" t="n">
+        <v>143298</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I186" t="n">
+        <v>12</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>49</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B187" t="n">
+        <v>179</v>
+      </c>
+      <c r="C187" t="n">
+        <v>183.1399993896484</v>
+      </c>
+      <c r="D187" t="n">
+        <v>178.8699951171875</v>
+      </c>
+      <c r="E187" t="n">
+        <v>182.2200012207031</v>
+      </c>
+      <c r="F187" t="n">
+        <v>182.2200012207031</v>
+      </c>
+      <c r="G187" t="n">
+        <v>152514</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I187" t="n">
+        <v>12</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>49</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B188" t="n">
+        <v>182.9900054931641</v>
+      </c>
+      <c r="C188" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="D188" t="n">
+        <v>182.1000061035156</v>
+      </c>
+      <c r="E188" t="n">
+        <v>184.4199981689453</v>
+      </c>
+      <c r="F188" t="n">
+        <v>184.4199981689453</v>
+      </c>
+      <c r="G188" t="n">
+        <v>347121</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I188" t="n">
+        <v>12</v>
+      </c>
+      <c r="J188" t="n">
+        <v>4</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>49</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B189" t="n">
+        <v>184.9499969482422</v>
+      </c>
+      <c r="C189" t="n">
+        <v>191.1999969482422</v>
+      </c>
+      <c r="D189" t="n">
+        <v>183.2100067138672</v>
+      </c>
+      <c r="E189" t="n">
+        <v>186.25</v>
+      </c>
+      <c r="F189" t="n">
+        <v>186.25</v>
+      </c>
+      <c r="G189" t="n">
+        <v>330390</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I189" t="n">
+        <v>12</v>
+      </c>
+      <c r="J189" t="n">
+        <v>5</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>49</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B190" t="n">
+        <v>189.1999969482422</v>
+      </c>
+      <c r="C190" t="n">
+        <v>191.5399932861328</v>
+      </c>
+      <c r="D190" t="n">
+        <v>186</v>
+      </c>
+      <c r="E190" t="n">
+        <v>186.75</v>
+      </c>
+      <c r="F190" t="n">
+        <v>186.75</v>
+      </c>
+      <c r="G190" t="n">
+        <v>448747</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I190" t="n">
+        <v>12</v>
+      </c>
+      <c r="J190" t="n">
+        <v>6</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>49</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>1</v>
+      </c>
+      <c r="R190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R190"/>
+  <dimension ref="A1:R200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10885,7 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
-      <c r="R186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10939,7 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10993,7 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
-      <c r="R188" t="inlineStr"/>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -11047,7 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
-      <c r="R189" t="inlineStr"/>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -11101,7 +11109,529 @@
       <c r="Q190" t="n">
         <v>1</v>
       </c>
-      <c r="R190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B191" t="n">
+        <v>188</v>
+      </c>
+      <c r="C191" t="n">
+        <v>188</v>
+      </c>
+      <c r="D191" t="n">
+        <v>184.0500030517578</v>
+      </c>
+      <c r="E191" t="n">
+        <v>184.4400024414062</v>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>114294</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I191" t="n">
+        <v>12</v>
+      </c>
+      <c r="J191" t="n">
+        <v>9</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>50</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B192" t="n">
+        <v>185</v>
+      </c>
+      <c r="C192" t="n">
+        <v>186.7200012207031</v>
+      </c>
+      <c r="D192" t="n">
+        <v>180.75</v>
+      </c>
+      <c r="E192" t="n">
+        <v>182.9299926757812</v>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>126989</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I192" t="n">
+        <v>12</v>
+      </c>
+      <c r="J192" t="n">
+        <v>10</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>50</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B193" t="n">
+        <v>184.6000061035156</v>
+      </c>
+      <c r="C193" t="n">
+        <v>188</v>
+      </c>
+      <c r="D193" t="n">
+        <v>182.4100036621094</v>
+      </c>
+      <c r="E193" t="n">
+        <v>183.8399963378906</v>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>158458</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I193" t="n">
+        <v>12</v>
+      </c>
+      <c r="J193" t="n">
+        <v>11</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>50</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B194" t="n">
+        <v>185</v>
+      </c>
+      <c r="C194" t="n">
+        <v>185.6000061035156</v>
+      </c>
+      <c r="D194" t="n">
+        <v>181.4299926757812</v>
+      </c>
+      <c r="E194" t="n">
+        <v>184.4299926757812</v>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>86206</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I194" t="n">
+        <v>12</v>
+      </c>
+      <c r="J194" t="n">
+        <v>12</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>50</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B195" t="n">
+        <v>182.6000061035156</v>
+      </c>
+      <c r="C195" t="n">
+        <v>192</v>
+      </c>
+      <c r="D195" t="n">
+        <v>180.4199981689453</v>
+      </c>
+      <c r="E195" t="n">
+        <v>188.0700073242188</v>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>608023</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I195" t="n">
+        <v>12</v>
+      </c>
+      <c r="J195" t="n">
+        <v>13</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>50</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B196" t="n">
+        <v>188.0700073242188</v>
+      </c>
+      <c r="C196" t="n">
+        <v>189</v>
+      </c>
+      <c r="D196" t="n">
+        <v>185</v>
+      </c>
+      <c r="E196" t="n">
+        <v>185.5700073242188</v>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>131727</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I196" t="n">
+        <v>12</v>
+      </c>
+      <c r="J196" t="n">
+        <v>16</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>51</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B197" t="n">
+        <v>189.3500061035156</v>
+      </c>
+      <c r="C197" t="n">
+        <v>189.3500061035156</v>
+      </c>
+      <c r="D197" t="n">
+        <v>183</v>
+      </c>
+      <c r="E197" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>146990</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I197" t="n">
+        <v>12</v>
+      </c>
+      <c r="J197" t="n">
+        <v>17</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>51</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B198" t="n">
+        <v>183</v>
+      </c>
+      <c r="C198" t="n">
+        <v>185.8699951171875</v>
+      </c>
+      <c r="D198" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>181.2200012207031</v>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>117382</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I198" t="n">
+        <v>12</v>
+      </c>
+      <c r="J198" t="n">
+        <v>18</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>51</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B199" t="n">
+        <v>178.0700073242188</v>
+      </c>
+      <c r="C199" t="n">
+        <v>182.8699951171875</v>
+      </c>
+      <c r="D199" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>180.0399932861328</v>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>166223</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I199" t="n">
+        <v>12</v>
+      </c>
+      <c r="J199" t="n">
+        <v>19</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>51</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B200" t="n">
+        <v>179.0099945068359</v>
+      </c>
+      <c r="C200" t="n">
+        <v>181.9900054931641</v>
+      </c>
+      <c r="D200" t="n">
+        <v>175.4100036621094</v>
+      </c>
+      <c r="E200" t="n">
+        <v>178.0200042724609</v>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="n">
+        <v>111111</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I200" t="n">
+        <v>12</v>
+      </c>
+      <c r="J200" t="n">
+        <v>20</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>51</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R200"/>
+  <dimension ref="A1:R204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11163,7 +11163,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
-      <c r="R191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -11215,7 +11217,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -11267,7 +11271,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -11319,7 +11325,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
-      <c r="R194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -11371,7 +11379,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
-      <c r="R195" t="inlineStr"/>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -11423,7 +11433,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -11475,7 +11487,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -11527,7 +11541,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11579,7 +11595,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11631,7 +11649,217 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B201" t="n">
+        <v>178.0200042724609</v>
+      </c>
+      <c r="C201" t="n">
+        <v>191.0500030517578</v>
+      </c>
+      <c r="D201" t="n">
+        <v>178.0200042724609</v>
+      </c>
+      <c r="E201" t="n">
+        <v>185.4100036621094</v>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="n">
+        <v>827194</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I201" t="n">
+        <v>12</v>
+      </c>
+      <c r="J201" t="n">
+        <v>23</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>52</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B202" t="n">
+        <v>185.4100036621094</v>
+      </c>
+      <c r="C202" t="n">
+        <v>187.3999938964844</v>
+      </c>
+      <c r="D202" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="E202" t="n">
+        <v>185.3899993896484</v>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="n">
+        <v>107090</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I202" t="n">
+        <v>12</v>
+      </c>
+      <c r="J202" t="n">
+        <v>24</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>52</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B203" t="n">
+        <v>185.3899993896484</v>
+      </c>
+      <c r="C203" t="n">
+        <v>186.6999969482422</v>
+      </c>
+      <c r="D203" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>183.6199951171875</v>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="n">
+        <v>117284</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I203" t="n">
+        <v>12</v>
+      </c>
+      <c r="J203" t="n">
+        <v>26</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>52</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B204" t="n">
+        <v>185.8899993896484</v>
+      </c>
+      <c r="C204" t="n">
+        <v>185.8899993896484</v>
+      </c>
+      <c r="D204" t="n">
+        <v>180.4100036621094</v>
+      </c>
+      <c r="E204" t="n">
+        <v>183.8699951171875</v>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="n">
+        <v>131289</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I204" t="n">
+        <v>12</v>
+      </c>
+      <c r="J204" t="n">
+        <v>27</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>52</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R204"/>
+  <dimension ref="A1:R209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8366,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="R141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="R190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -11371,7 +11371,7 @@
         <v>50</v>
       </c>
       <c r="O195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P195" t="n">
         <v>0</v>
@@ -11703,7 +11703,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11755,7 +11757,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11807,7 +11811,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11859,7 +11865,269 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B205" t="n">
+        <v>185</v>
+      </c>
+      <c r="C205" t="n">
+        <v>186.2299957275391</v>
+      </c>
+      <c r="D205" t="n">
+        <v>181</v>
+      </c>
+      <c r="E205" t="n">
+        <v>184.9700012207031</v>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="n">
+        <v>147666</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I205" t="n">
+        <v>12</v>
+      </c>
+      <c r="J205" t="n">
+        <v>30</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B206" t="n">
+        <v>187</v>
+      </c>
+      <c r="C206" t="n">
+        <v>187.5800018310547</v>
+      </c>
+      <c r="D206" t="n">
+        <v>181.1100006103516</v>
+      </c>
+      <c r="E206" t="n">
+        <v>183.8999938964844</v>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="n">
+        <v>139799</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I206" t="n">
+        <v>12</v>
+      </c>
+      <c r="J206" t="n">
+        <v>31</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B207" t="n">
+        <v>182</v>
+      </c>
+      <c r="C207" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D207" t="n">
+        <v>182</v>
+      </c>
+      <c r="E207" t="n">
+        <v>183.1699981689453</v>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="n">
+        <v>78805</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B208" t="n">
+        <v>184</v>
+      </c>
+      <c r="C208" t="n">
+        <v>184.9199981689453</v>
+      </c>
+      <c r="D208" t="n">
+        <v>179.6699981689453</v>
+      </c>
+      <c r="E208" t="n">
+        <v>181.1300048828125</v>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>132155</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B209" t="n">
+        <v>182</v>
+      </c>
+      <c r="C209" t="n">
+        <v>187</v>
+      </c>
+      <c r="D209" t="n">
+        <v>181.25</v>
+      </c>
+      <c r="E209" t="n">
+        <v>184.2599945068359</v>
+      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="n">
+        <v>218188</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>3</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R209"/>
+  <dimension ref="A1:R214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8366,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="R141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="R190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -11641,7 +11641,7 @@
         <v>51</v>
       </c>
       <c r="O200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P200" t="n">
         <v>0</v>
@@ -11919,7 +11919,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11971,7 +11973,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -12023,7 +12027,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -12075,7 +12081,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -12127,7 +12135,269 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
-      <c r="R209" t="inlineStr"/>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B210" t="n">
+        <v>185.8999938964844</v>
+      </c>
+      <c r="C210" t="n">
+        <v>187.0099945068359</v>
+      </c>
+      <c r="D210" t="n">
+        <v>177.0200042724609</v>
+      </c>
+      <c r="E210" t="n">
+        <v>178.9199981689453</v>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="n">
+        <v>159636</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>6</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B211" t="n">
+        <v>180.9199981689453</v>
+      </c>
+      <c r="C211" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E211" t="n">
+        <v>182.2700042724609</v>
+      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="n">
+        <v>84651</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>7</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B212" t="n">
+        <v>183.3999938964844</v>
+      </c>
+      <c r="C212" t="n">
+        <v>183.3999938964844</v>
+      </c>
+      <c r="D212" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E212" t="n">
+        <v>179.5200042724609</v>
+      </c>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="n">
+        <v>69927</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>8</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B213" t="n">
+        <v>178.6100006103516</v>
+      </c>
+      <c r="C213" t="n">
+        <v>180.7899932861328</v>
+      </c>
+      <c r="D213" t="n">
+        <v>177.1300048828125</v>
+      </c>
+      <c r="E213" t="n">
+        <v>177.7799987792969</v>
+      </c>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="n">
+        <v>75271</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>9</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>2</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B214" t="n">
+        <v>176.1199951171875</v>
+      </c>
+      <c r="C214" t="n">
+        <v>180.9600067138672</v>
+      </c>
+      <c r="D214" t="n">
+        <v>172.8099975585938</v>
+      </c>
+      <c r="E214" t="n">
+        <v>176.3399963378906</v>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="n">
+        <v>131114</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>10</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R214"/>
+  <dimension ref="A1:R219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12189,7 +12189,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
-      <c r="R210" t="inlineStr"/>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -12241,7 +12243,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
-      <c r="R211" t="inlineStr"/>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -12293,7 +12297,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
-      <c r="R212" t="inlineStr"/>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -12345,7 +12351,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
-      <c r="R213" t="inlineStr"/>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -12397,7 +12405,269 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B215" t="n">
+        <v>176.6600036621094</v>
+      </c>
+      <c r="C215" t="n">
+        <v>178.9900054931641</v>
+      </c>
+      <c r="D215" t="n">
+        <v>166</v>
+      </c>
+      <c r="E215" t="n">
+        <v>167.0299987792969</v>
+      </c>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="n">
+        <v>160978</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>13</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>3</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B216" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="C216" t="n">
+        <v>174.4199981689453</v>
+      </c>
+      <c r="D216" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="E216" t="n">
+        <v>172.8200073242188</v>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="n">
+        <v>91036</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>14</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>3</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B217" t="n">
+        <v>174.1900024414062</v>
+      </c>
+      <c r="C217" t="n">
+        <v>179.3000030517578</v>
+      </c>
+      <c r="D217" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="E217" t="n">
+        <v>177.6600036621094</v>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="n">
+        <v>96733</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>15</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>3</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B218" t="n">
+        <v>180.9900054931641</v>
+      </c>
+      <c r="C218" t="n">
+        <v>180.9900054931641</v>
+      </c>
+      <c r="D218" t="n">
+        <v>175.8099975585938</v>
+      </c>
+      <c r="E218" t="n">
+        <v>176.8899993896484</v>
+      </c>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="n">
+        <v>58701</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>16</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>3</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B219" t="n">
+        <v>176.8999938964844</v>
+      </c>
+      <c r="C219" t="n">
+        <v>181</v>
+      </c>
+      <c r="D219" t="n">
+        <v>174.2400054931641</v>
+      </c>
+      <c r="E219" t="n">
+        <v>179.8099975585938</v>
+      </c>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="n">
+        <v>46057</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>17</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>3</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R219"/>
+  <dimension ref="A1:R224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12459,7 +12459,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
-      <c r="R215" t="inlineStr"/>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -12511,7 +12513,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
-      <c r="R216" t="inlineStr"/>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -12563,7 +12567,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
-      <c r="R217" t="inlineStr"/>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12615,7 +12621,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
-      <c r="R218" t="inlineStr"/>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12667,7 +12675,269 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
-      <c r="R219" t="inlineStr"/>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B220" t="n">
+        <v>179.8099975585938</v>
+      </c>
+      <c r="C220" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>177.1600036621094</v>
+      </c>
+      <c r="E220" t="n">
+        <v>180.1699981689453</v>
+      </c>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="n">
+        <v>53586</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>20</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>4</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B221" t="n">
+        <v>182</v>
+      </c>
+      <c r="C221" t="n">
+        <v>182.5899963378906</v>
+      </c>
+      <c r="D221" t="n">
+        <v>177</v>
+      </c>
+      <c r="E221" t="n">
+        <v>178.9299926757812</v>
+      </c>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="n">
+        <v>50942</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>21</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B222" t="n">
+        <v>178.9299926757812</v>
+      </c>
+      <c r="C222" t="n">
+        <v>178.9299926757812</v>
+      </c>
+      <c r="D222" t="n">
+        <v>173.3000030517578</v>
+      </c>
+      <c r="E222" t="n">
+        <v>174.0200042724609</v>
+      </c>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="n">
+        <v>55841</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>22</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>4</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B223" t="n">
+        <v>174.0200042724609</v>
+      </c>
+      <c r="C223" t="n">
+        <v>177.0200042724609</v>
+      </c>
+      <c r="D223" t="n">
+        <v>172.5099945068359</v>
+      </c>
+      <c r="E223" t="n">
+        <v>173.3999938964844</v>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="n">
+        <v>50944</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>23</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>4</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B224" t="n">
+        <v>174.1999969482422</v>
+      </c>
+      <c r="C224" t="n">
+        <v>178.4499969482422</v>
+      </c>
+      <c r="D224" t="n">
+        <v>170.5800018310547</v>
+      </c>
+      <c r="E224" t="n">
+        <v>171.8399963378906</v>
+      </c>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="n">
+        <v>99951</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>24</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>4</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R224"/>
+  <dimension ref="A1:R229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12729,7 +12729,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
-      <c r="R220" t="inlineStr"/>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12781,7 +12783,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
-      <c r="R221" t="inlineStr"/>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12833,7 +12837,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
-      <c r="R222" t="inlineStr"/>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12885,7 +12891,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
-      <c r="R223" t="inlineStr"/>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12937,7 +12945,269 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
-      <c r="R224" t="inlineStr"/>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B225" t="n">
+        <v>169.8999938964844</v>
+      </c>
+      <c r="C225" t="n">
+        <v>169.8999938964844</v>
+      </c>
+      <c r="D225" t="n">
+        <v>161</v>
+      </c>
+      <c r="E225" t="n">
+        <v>162.3300018310547</v>
+      </c>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="n">
+        <v>73405</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>27</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>5</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B226" t="n">
+        <v>164.7200012207031</v>
+      </c>
+      <c r="C226" t="n">
+        <v>166.4299926757812</v>
+      </c>
+      <c r="D226" t="n">
+        <v>153.4199981689453</v>
+      </c>
+      <c r="E226" t="n">
+        <v>161.2400054931641</v>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="n">
+        <v>88869</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>28</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>5</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B227" t="n">
+        <v>160</v>
+      </c>
+      <c r="C227" t="n">
+        <v>166.5299987792969</v>
+      </c>
+      <c r="D227" t="n">
+        <v>160</v>
+      </c>
+      <c r="E227" t="n">
+        <v>163.4900054931641</v>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="n">
+        <v>95695</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>29</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>5</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B228" t="n">
+        <v>165.9499969482422</v>
+      </c>
+      <c r="C228" t="n">
+        <v>167.9900054931641</v>
+      </c>
+      <c r="D228" t="n">
+        <v>164</v>
+      </c>
+      <c r="E228" t="n">
+        <v>164.8399963378906</v>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="n">
+        <v>75343</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>30</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>5</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B229" t="n">
+        <v>165.6000061035156</v>
+      </c>
+      <c r="C229" t="n">
+        <v>168.5800018310547</v>
+      </c>
+      <c r="D229" t="n">
+        <v>164.0099945068359</v>
+      </c>
+      <c r="E229" t="n">
+        <v>166.2599945068359</v>
+      </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="n">
+        <v>48305</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>31</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>5</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R229"/>
+  <dimension ref="A1:R234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12999,7 +12999,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
-      <c r="R225" t="inlineStr"/>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -13051,7 +13053,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
-      <c r="R226" t="inlineStr"/>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -13103,7 +13107,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
-      <c r="R227" t="inlineStr"/>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -13155,7 +13161,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
-      <c r="R228" t="inlineStr"/>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -13207,7 +13215,269 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
-      <c r="R229" t="inlineStr"/>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B230" t="n">
+        <v>167.4600067138672</v>
+      </c>
+      <c r="C230" t="n">
+        <v>168.4100036621094</v>
+      </c>
+      <c r="D230" t="n">
+        <v>164.3200073242188</v>
+      </c>
+      <c r="E230" t="n">
+        <v>166.1699981689453</v>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="n">
+        <v>41053</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>3</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>6</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B231" t="n">
+        <v>165.9900054931641</v>
+      </c>
+      <c r="C231" t="n">
+        <v>169.5899963378906</v>
+      </c>
+      <c r="D231" t="n">
+        <v>165.9900054931641</v>
+      </c>
+      <c r="E231" t="n">
+        <v>167.6799926757812</v>
+      </c>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="n">
+        <v>40189</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>4</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>6</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B232" t="n">
+        <v>168.8500061035156</v>
+      </c>
+      <c r="C232" t="n">
+        <v>172.0500030517578</v>
+      </c>
+      <c r="D232" t="n">
+        <v>167.1999969482422</v>
+      </c>
+      <c r="E232" t="n">
+        <v>168.3500061035156</v>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="n">
+        <v>44176</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I232" t="n">
+        <v>2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>5</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>6</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B233" t="n">
+        <v>169.9499969482422</v>
+      </c>
+      <c r="C233" t="n">
+        <v>171</v>
+      </c>
+      <c r="D233" t="n">
+        <v>166.4499969482422</v>
+      </c>
+      <c r="E233" t="n">
+        <v>168.2400054931641</v>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="n">
+        <v>64696</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I233" t="n">
+        <v>2</v>
+      </c>
+      <c r="J233" t="n">
+        <v>6</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>6</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B234" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="C234" t="n">
+        <v>169.7100067138672</v>
+      </c>
+      <c r="D234" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="E234" t="n">
+        <v>165.6600036621094</v>
+      </c>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="n">
+        <v>36196</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I234" t="n">
+        <v>2</v>
+      </c>
+      <c r="J234" t="n">
+        <v>7</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>6</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R234"/>
+  <dimension ref="A1:R239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13269,7 +13269,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -13321,7 +13323,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
-      <c r="R231" t="inlineStr"/>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -13373,7 +13377,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
-      <c r="R232" t="inlineStr"/>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -13425,7 +13431,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
-      <c r="R233" t="inlineStr"/>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -13477,7 +13485,269 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
-      <c r="R234" t="inlineStr"/>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B235" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="C235" t="n">
+        <v>168.7400054931641</v>
+      </c>
+      <c r="D235" t="n">
+        <v>158.8999938964844</v>
+      </c>
+      <c r="E235" t="n">
+        <v>161.5899963378906</v>
+      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="n">
+        <v>88301</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I235" t="n">
+        <v>2</v>
+      </c>
+      <c r="J235" t="n">
+        <v>10</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>7</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B236" t="n">
+        <v>158</v>
+      </c>
+      <c r="C236" t="n">
+        <v>161.9900054931641</v>
+      </c>
+      <c r="D236" t="n">
+        <v>149.8999938964844</v>
+      </c>
+      <c r="E236" t="n">
+        <v>152.6600036621094</v>
+      </c>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="n">
+        <v>167504</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I236" t="n">
+        <v>2</v>
+      </c>
+      <c r="J236" t="n">
+        <v>11</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>7</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B237" t="n">
+        <v>155</v>
+      </c>
+      <c r="C237" t="n">
+        <v>155</v>
+      </c>
+      <c r="D237" t="n">
+        <v>143.6399993896484</v>
+      </c>
+      <c r="E237" t="n">
+        <v>149</v>
+      </c>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="n">
+        <v>181764</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I237" t="n">
+        <v>2</v>
+      </c>
+      <c r="J237" t="n">
+        <v>12</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>7</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B238" t="n">
+        <v>146.1999969482422</v>
+      </c>
+      <c r="C238" t="n">
+        <v>151.2400054931641</v>
+      </c>
+      <c r="D238" t="n">
+        <v>146.1999969482422</v>
+      </c>
+      <c r="E238" t="n">
+        <v>148.8399963378906</v>
+      </c>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="n">
+        <v>68712</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I238" t="n">
+        <v>2</v>
+      </c>
+      <c r="J238" t="n">
+        <v>13</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>7</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B239" t="n">
+        <v>149.0099945068359</v>
+      </c>
+      <c r="C239" t="n">
+        <v>150.6900024414062</v>
+      </c>
+      <c r="D239" t="n">
+        <v>143.8000030517578</v>
+      </c>
+      <c r="E239" t="n">
+        <v>143.9600067138672</v>
+      </c>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="n">
+        <v>87132</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I239" t="n">
+        <v>2</v>
+      </c>
+      <c r="J239" t="n">
+        <v>14</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>7</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R239"/>
+  <dimension ref="A1:R244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13539,7 +13539,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
-      <c r="R235" t="inlineStr"/>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -13591,7 +13593,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
-      <c r="R236" t="inlineStr"/>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13643,7 +13647,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
-      <c r="R237" t="inlineStr"/>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13695,7 +13701,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
-      <c r="R238" t="inlineStr"/>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13747,7 +13755,269 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
-      <c r="R239" t="inlineStr"/>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B240" t="n">
+        <v>143.1000061035156</v>
+      </c>
+      <c r="C240" t="n">
+        <v>144.3099975585938</v>
+      </c>
+      <c r="D240" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="E240" t="n">
+        <v>139.6499938964844</v>
+      </c>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="n">
+        <v>123206</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I240" t="n">
+        <v>2</v>
+      </c>
+      <c r="J240" t="n">
+        <v>17</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>8</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B241" t="n">
+        <v>140</v>
+      </c>
+      <c r="C241" t="n">
+        <v>141.3399963378906</v>
+      </c>
+      <c r="D241" t="n">
+        <v>135</v>
+      </c>
+      <c r="E241" t="n">
+        <v>136.0800018310547</v>
+      </c>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="n">
+        <v>97110</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I241" t="n">
+        <v>2</v>
+      </c>
+      <c r="J241" t="n">
+        <v>18</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>8</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B242" t="n">
+        <v>135.1900024414062</v>
+      </c>
+      <c r="C242" t="n">
+        <v>140.7899932861328</v>
+      </c>
+      <c r="D242" t="n">
+        <v>134.3099975585938</v>
+      </c>
+      <c r="E242" t="n">
+        <v>139.2700042724609</v>
+      </c>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="n">
+        <v>80891</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I242" t="n">
+        <v>2</v>
+      </c>
+      <c r="J242" t="n">
+        <v>19</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>8</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B243" t="n">
+        <v>140.7899932861328</v>
+      </c>
+      <c r="C243" t="n">
+        <v>144.1900024414062</v>
+      </c>
+      <c r="D243" t="n">
+        <v>138.0800018310547</v>
+      </c>
+      <c r="E243" t="n">
+        <v>143.4700012207031</v>
+      </c>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="n">
+        <v>74827</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I243" t="n">
+        <v>2</v>
+      </c>
+      <c r="J243" t="n">
+        <v>20</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>8</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B244" t="n">
+        <v>141.6000061035156</v>
+      </c>
+      <c r="C244" t="n">
+        <v>144.8600006103516</v>
+      </c>
+      <c r="D244" t="n">
+        <v>137.3300018310547</v>
+      </c>
+      <c r="E244" t="n">
+        <v>139.3399963378906</v>
+      </c>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="n">
+        <v>130695</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I244" t="n">
+        <v>2</v>
+      </c>
+      <c r="J244" t="n">
+        <v>21</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>8</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R244"/>
+  <dimension ref="A1:R254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13045,7 +13045,7 @@
         <v>5</v>
       </c>
       <c r="O226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P226" t="n">
         <v>0</v>
@@ -13221,23 +13221,23 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B230" t="n">
+        <v>169.8999938964844</v>
+      </c>
+      <c r="C230" t="n">
+        <v>169.8999938964844</v>
+      </c>
+      <c r="D230" t="n">
+        <v>166.0700073242188</v>
+      </c>
+      <c r="E230" t="n">
         <v>167.4600067138672</v>
-      </c>
-      <c r="C230" t="n">
-        <v>168.4100036621094</v>
-      </c>
-      <c r="D230" t="n">
-        <v>164.3200073242188</v>
-      </c>
-      <c r="E230" t="n">
-        <v>166.1699981689453</v>
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>41053</v>
+        <v>47767</v>
       </c>
       <c r="H230" t="n">
         <v>2025</v>
@@ -13246,7 +13246,7 @@
         <v>2</v>
       </c>
       <c r="J230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -13258,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O230" t="n">
         <v>0</v>
@@ -13269,29 +13269,27 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="n">
-        <v>0</v>
-      </c>
+      <c r="R230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B231" t="n">
-        <v>165.9900054931641</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="C231" t="n">
-        <v>169.5899963378906</v>
+        <v>168.4100036621094</v>
       </c>
       <c r="D231" t="n">
-        <v>165.9900054931641</v>
+        <v>164.3200073242188</v>
       </c>
       <c r="E231" t="n">
-        <v>167.6799926757812</v>
+        <v>166.1699981689453</v>
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="n">
-        <v>40189</v>
+        <v>41053</v>
       </c>
       <c r="H231" t="n">
         <v>2025</v>
@@ -13300,7 +13298,7 @@
         <v>2</v>
       </c>
       <c r="J231" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -13329,23 +13327,23 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B232" t="n">
-        <v>168.8500061035156</v>
+        <v>165.9900054931641</v>
       </c>
       <c r="C232" t="n">
-        <v>172.0500030517578</v>
+        <v>169.5899963378906</v>
       </c>
       <c r="D232" t="n">
-        <v>167.1999969482422</v>
+        <v>165.9900054931641</v>
       </c>
       <c r="E232" t="n">
-        <v>168.3500061035156</v>
+        <v>167.6799926757812</v>
       </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="n">
-        <v>44176</v>
+        <v>40189</v>
       </c>
       <c r="H232" t="n">
         <v>2025</v>
@@ -13354,7 +13352,7 @@
         <v>2</v>
       </c>
       <c r="J232" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -13383,23 +13381,23 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B233" t="n">
-        <v>169.9499969482422</v>
+        <v>168.8500061035156</v>
       </c>
       <c r="C233" t="n">
-        <v>171</v>
+        <v>172.0500030517578</v>
       </c>
       <c r="D233" t="n">
-        <v>166.4499969482422</v>
+        <v>167.1999969482422</v>
       </c>
       <c r="E233" t="n">
-        <v>168.2400054931641</v>
+        <v>168.3500061035156</v>
       </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="n">
-        <v>64696</v>
+        <v>44176</v>
       </c>
       <c r="H233" t="n">
         <v>2025</v>
@@ -13408,7 +13406,7 @@
         <v>2</v>
       </c>
       <c r="J233" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -13437,23 +13435,23 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B234" t="n">
-        <v>168.5</v>
+        <v>169.9499969482422</v>
       </c>
       <c r="C234" t="n">
-        <v>169.7100067138672</v>
+        <v>171</v>
       </c>
       <c r="D234" t="n">
-        <v>164.5</v>
+        <v>166.4499969482422</v>
       </c>
       <c r="E234" t="n">
-        <v>165.6600036621094</v>
+        <v>168.2400054931641</v>
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="n">
-        <v>36196</v>
+        <v>64696</v>
       </c>
       <c r="H234" t="n">
         <v>2025</v>
@@ -13462,7 +13460,7 @@
         <v>2</v>
       </c>
       <c r="J234" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -13491,23 +13489,23 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B235" t="n">
-        <v>166.5</v>
+        <v>168.5</v>
       </c>
       <c r="C235" t="n">
-        <v>168.7400054931641</v>
+        <v>169.7100067138672</v>
       </c>
       <c r="D235" t="n">
-        <v>158.8999938964844</v>
+        <v>164.5</v>
       </c>
       <c r="E235" t="n">
-        <v>161.5899963378906</v>
+        <v>165.6600036621094</v>
       </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>88301</v>
+        <v>36196</v>
       </c>
       <c r="H235" t="n">
         <v>2025</v>
@@ -13516,7 +13514,7 @@
         <v>2</v>
       </c>
       <c r="J235" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -13528,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O235" t="n">
         <v>0</v>
@@ -13545,23 +13543,23 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B236" t="n">
-        <v>158</v>
+        <v>166.5</v>
       </c>
       <c r="C236" t="n">
-        <v>161.9900054931641</v>
+        <v>168.7400054931641</v>
       </c>
       <c r="D236" t="n">
-        <v>149.8999938964844</v>
+        <v>158.8999938964844</v>
       </c>
       <c r="E236" t="n">
-        <v>152.6600036621094</v>
+        <v>161.5899963378906</v>
       </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>167504</v>
+        <v>88301</v>
       </c>
       <c r="H236" t="n">
         <v>2025</v>
@@ -13570,7 +13568,7 @@
         <v>2</v>
       </c>
       <c r="J236" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -13599,23 +13597,23 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B237" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C237" t="n">
-        <v>155</v>
+        <v>161.9900054931641</v>
       </c>
       <c r="D237" t="n">
-        <v>143.6399993896484</v>
+        <v>149.8999938964844</v>
       </c>
       <c r="E237" t="n">
-        <v>149</v>
+        <v>152.6600036621094</v>
       </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>181764</v>
+        <v>167504</v>
       </c>
       <c r="H237" t="n">
         <v>2025</v>
@@ -13624,7 +13622,7 @@
         <v>2</v>
       </c>
       <c r="J237" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -13653,23 +13651,23 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B238" t="n">
-        <v>146.1999969482422</v>
+        <v>155</v>
       </c>
       <c r="C238" t="n">
-        <v>151.2400054931641</v>
+        <v>155</v>
       </c>
       <c r="D238" t="n">
-        <v>146.1999969482422</v>
+        <v>143.6399993896484</v>
       </c>
       <c r="E238" t="n">
-        <v>148.8399963378906</v>
+        <v>149</v>
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>68712</v>
+        <v>181764</v>
       </c>
       <c r="H238" t="n">
         <v>2025</v>
@@ -13678,7 +13676,7 @@
         <v>2</v>
       </c>
       <c r="J238" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -13707,23 +13705,23 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B239" t="n">
-        <v>149.0099945068359</v>
+        <v>146.1999969482422</v>
       </c>
       <c r="C239" t="n">
-        <v>150.6900024414062</v>
+        <v>151.2400054931641</v>
       </c>
       <c r="D239" t="n">
-        <v>143.8000030517578</v>
+        <v>146.1999969482422</v>
       </c>
       <c r="E239" t="n">
-        <v>143.9600067138672</v>
+        <v>148.8399963378906</v>
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
-        <v>87132</v>
+        <v>68712</v>
       </c>
       <c r="H239" t="n">
         <v>2025</v>
@@ -13732,7 +13730,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -13761,23 +13759,23 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B240" t="n">
-        <v>143.1000061035156</v>
+        <v>149.0099945068359</v>
       </c>
       <c r="C240" t="n">
-        <v>144.3099975585938</v>
+        <v>150.6900024414062</v>
       </c>
       <c r="D240" t="n">
-        <v>138.5</v>
+        <v>143.8000030517578</v>
       </c>
       <c r="E240" t="n">
-        <v>139.6499938964844</v>
+        <v>143.9600067138672</v>
       </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="n">
-        <v>123206</v>
+        <v>87132</v>
       </c>
       <c r="H240" t="n">
         <v>2025</v>
@@ -13786,7 +13784,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -13798,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="N240" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O240" t="n">
         <v>0</v>
@@ -13809,27 +13807,29 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
-      <c r="R240" t="inlineStr"/>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B241" t="n">
-        <v>140</v>
+        <v>143.1000061035156</v>
       </c>
       <c r="C241" t="n">
-        <v>141.3399963378906</v>
+        <v>144.3099975585938</v>
       </c>
       <c r="D241" t="n">
-        <v>135</v>
+        <v>138.5</v>
       </c>
       <c r="E241" t="n">
-        <v>136.0800018310547</v>
+        <v>139.6499938964844</v>
       </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>97110</v>
+        <v>123206</v>
       </c>
       <c r="H241" t="n">
         <v>2025</v>
@@ -13838,7 +13838,7 @@
         <v>2</v>
       </c>
       <c r="J241" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -13861,27 +13861,29 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
-      <c r="R241" t="inlineStr"/>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B242" t="n">
-        <v>135.1900024414062</v>
+        <v>140</v>
       </c>
       <c r="C242" t="n">
-        <v>140.7899932861328</v>
+        <v>141.3399963378906</v>
       </c>
       <c r="D242" t="n">
-        <v>134.3099975585938</v>
+        <v>135</v>
       </c>
       <c r="E242" t="n">
-        <v>139.2700042724609</v>
+        <v>136.0800018310547</v>
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="n">
-        <v>80891</v>
+        <v>97110</v>
       </c>
       <c r="H242" t="n">
         <v>2025</v>
@@ -13890,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="J242" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -13913,27 +13915,29 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
-      <c r="R242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B243" t="n">
+        <v>135.1900024414062</v>
+      </c>
+      <c r="C243" t="n">
         <v>140.7899932861328</v>
       </c>
-      <c r="C243" t="n">
-        <v>144.1900024414062</v>
-      </c>
       <c r="D243" t="n">
-        <v>138.0800018310547</v>
+        <v>134.3099975585938</v>
       </c>
       <c r="E243" t="n">
-        <v>143.4700012207031</v>
+        <v>139.2700042724609</v>
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>74827</v>
+        <v>80891</v>
       </c>
       <c r="H243" t="n">
         <v>2025</v>
@@ -13942,7 +13946,7 @@
         <v>2</v>
       </c>
       <c r="J243" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -13965,27 +13969,29 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
-      <c r="R243" t="inlineStr"/>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B244" t="n">
-        <v>141.6000061035156</v>
+        <v>140.7899932861328</v>
       </c>
       <c r="C244" t="n">
-        <v>144.8600006103516</v>
+        <v>144.1900024414062</v>
       </c>
       <c r="D244" t="n">
-        <v>137.3300018310547</v>
+        <v>138.0800018310547</v>
       </c>
       <c r="E244" t="n">
-        <v>139.3399963378906</v>
+        <v>143.4700012207031</v>
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="n">
-        <v>130695</v>
+        <v>74827</v>
       </c>
       <c r="H244" t="n">
         <v>2025</v>
@@ -13994,7 +14000,7 @@
         <v>2</v>
       </c>
       <c r="J244" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -14017,7 +14023,531 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
-      <c r="R244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B245" t="n">
+        <v>141.6000061035156</v>
+      </c>
+      <c r="C245" t="n">
+        <v>144.8600006103516</v>
+      </c>
+      <c r="D245" t="n">
+        <v>137.3300018310547</v>
+      </c>
+      <c r="E245" t="n">
+        <v>139.3399963378906</v>
+      </c>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="n">
+        <v>130695</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I245" t="n">
+        <v>2</v>
+      </c>
+      <c r="J245" t="n">
+        <v>21</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>8</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B246" t="n">
+        <v>139.6699981689453</v>
+      </c>
+      <c r="C246" t="n">
+        <v>144</v>
+      </c>
+      <c r="D246" t="n">
+        <v>136.9100036621094</v>
+      </c>
+      <c r="E246" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="n">
+        <v>145017</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I246" t="n">
+        <v>2</v>
+      </c>
+      <c r="J246" t="n">
+        <v>24</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>9</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B247" t="n">
+        <v>143</v>
+      </c>
+      <c r="C247" t="n">
+        <v>145.9100036621094</v>
+      </c>
+      <c r="D247" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="E247" t="n">
+        <v>141.9799957275391</v>
+      </c>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="n">
+        <v>119549</v>
+      </c>
+      <c r="H247" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I247" t="n">
+        <v>2</v>
+      </c>
+      <c r="J247" t="n">
+        <v>25</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>9</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B248" t="n">
+        <v>141.0500030517578</v>
+      </c>
+      <c r="C248" t="n">
+        <v>143.9900054931641</v>
+      </c>
+      <c r="D248" t="n">
+        <v>134</v>
+      </c>
+      <c r="E248" t="n">
+        <v>136.4100036621094</v>
+      </c>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="n">
+        <v>194821</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I248" t="n">
+        <v>2</v>
+      </c>
+      <c r="J248" t="n">
+        <v>27</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>9</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B249" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="C249" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="D249" t="n">
+        <v>129.6199951171875</v>
+      </c>
+      <c r="E249" t="n">
+        <v>130.9400024414062</v>
+      </c>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="n">
+        <v>103660</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I249" t="n">
+        <v>2</v>
+      </c>
+      <c r="J249" t="n">
+        <v>28</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>9</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B250" t="n">
+        <v>131.6000061035156</v>
+      </c>
+      <c r="C250" t="n">
+        <v>133.4900054931641</v>
+      </c>
+      <c r="D250" t="n">
+        <v>127.75</v>
+      </c>
+      <c r="E250" t="n">
+        <v>129.1699981689453</v>
+      </c>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="n">
+        <v>119586</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I250" t="n">
+        <v>3</v>
+      </c>
+      <c r="J250" t="n">
+        <v>3</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>10</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B251" t="n">
+        <v>127.9300003051758</v>
+      </c>
+      <c r="C251" t="n">
+        <v>130.4900054931641</v>
+      </c>
+      <c r="D251" t="n">
+        <v>126.0999984741211</v>
+      </c>
+      <c r="E251" t="n">
+        <v>127</v>
+      </c>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="n">
+        <v>181675</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I251" t="n">
+        <v>3</v>
+      </c>
+      <c r="J251" t="n">
+        <v>4</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>10</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B252" t="n">
+        <v>127.0999984741211</v>
+      </c>
+      <c r="C252" t="n">
+        <v>133.6000061035156</v>
+      </c>
+      <c r="D252" t="n">
+        <v>127.0999984741211</v>
+      </c>
+      <c r="E252" t="n">
+        <v>129.0099945068359</v>
+      </c>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="n">
+        <v>168172</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I252" t="n">
+        <v>3</v>
+      </c>
+      <c r="J252" t="n">
+        <v>5</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>10</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B253" t="n">
+        <v>130.0800018310547</v>
+      </c>
+      <c r="C253" t="n">
+        <v>134.4900054931641</v>
+      </c>
+      <c r="D253" t="n">
+        <v>130.0800018310547</v>
+      </c>
+      <c r="E253" t="n">
+        <v>132.3899993896484</v>
+      </c>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="n">
+        <v>172390</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I253" t="n">
+        <v>3</v>
+      </c>
+      <c r="J253" t="n">
+        <v>6</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>10</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B254" t="n">
+        <v>133.1799926757812</v>
+      </c>
+      <c r="C254" t="n">
+        <v>137.4900054931641</v>
+      </c>
+      <c r="D254" t="n">
+        <v>131.9400024414062</v>
+      </c>
+      <c r="E254" t="n">
+        <v>135.2599945068359</v>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="n">
+        <v>162991</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I254" t="n">
+        <v>3</v>
+      </c>
+      <c r="J254" t="n">
+        <v>7</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>10</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R254"/>
+  <dimension ref="A1:R263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13269,7 +13269,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -14131,7 +14133,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
-      <c r="R246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -14183,7 +14187,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
-      <c r="R247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -14235,7 +14241,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
-      <c r="R248" t="inlineStr"/>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -14287,7 +14295,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
-      <c r="R249" t="inlineStr"/>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -14339,7 +14349,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
-      <c r="R250" t="inlineStr"/>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -14383,7 +14395,7 @@
         <v>10</v>
       </c>
       <c r="O251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P251" t="n">
         <v>0</v>
@@ -14391,7 +14403,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
-      <c r="R251" t="inlineStr"/>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -14443,7 +14457,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
-      <c r="R252" t="inlineStr"/>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -14495,7 +14511,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
-      <c r="R253" t="inlineStr"/>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -14547,7 +14565,477 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
-      <c r="R254" t="inlineStr"/>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B255" t="n">
+        <v>135</v>
+      </c>
+      <c r="C255" t="n">
+        <v>141.0800018310547</v>
+      </c>
+      <c r="D255" t="n">
+        <v>132</v>
+      </c>
+      <c r="E255" t="n">
+        <v>139</v>
+      </c>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="n">
+        <v>312471</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I255" t="n">
+        <v>3</v>
+      </c>
+      <c r="J255" t="n">
+        <v>10</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>11</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B256" t="n">
+        <v>138.8999938964844</v>
+      </c>
+      <c r="C256" t="n">
+        <v>140</v>
+      </c>
+      <c r="D256" t="n">
+        <v>135</v>
+      </c>
+      <c r="E256" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="n">
+        <v>117580</v>
+      </c>
+      <c r="H256" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I256" t="n">
+        <v>3</v>
+      </c>
+      <c r="J256" t="n">
+        <v>11</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>11</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B257" t="n">
+        <v>138</v>
+      </c>
+      <c r="C257" t="n">
+        <v>141.5500030517578</v>
+      </c>
+      <c r="D257" t="n">
+        <v>135.0500030517578</v>
+      </c>
+      <c r="E257" t="n">
+        <v>136.6000061035156</v>
+      </c>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="n">
+        <v>69743</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I257" t="n">
+        <v>3</v>
+      </c>
+      <c r="J257" t="n">
+        <v>12</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>11</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B258" t="n">
+        <v>135.6000061035156</v>
+      </c>
+      <c r="C258" t="n">
+        <v>139.6999969482422</v>
+      </c>
+      <c r="D258" t="n">
+        <v>133.8999938964844</v>
+      </c>
+      <c r="E258" t="n">
+        <v>136.3699951171875</v>
+      </c>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="n">
+        <v>155944</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I258" t="n">
+        <v>3</v>
+      </c>
+      <c r="J258" t="n">
+        <v>13</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>11</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B259" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>139.8000030517578</v>
+      </c>
+      <c r="D259" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="E259" t="n">
+        <v>135.5500030517578</v>
+      </c>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="n">
+        <v>117805</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I259" t="n">
+        <v>3</v>
+      </c>
+      <c r="J259" t="n">
+        <v>17</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>12</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B260" t="n">
+        <v>135.5500030517578</v>
+      </c>
+      <c r="C260" t="n">
+        <v>135.5500030517578</v>
+      </c>
+      <c r="D260" t="n">
+        <v>135.5500030517578</v>
+      </c>
+      <c r="E260" t="n">
+        <v>135.5500030517578</v>
+      </c>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I260" t="n">
+        <v>3</v>
+      </c>
+      <c r="J260" t="n">
+        <v>18</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>12</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B261" t="n">
+        <v>139</v>
+      </c>
+      <c r="C261" t="n">
+        <v>144</v>
+      </c>
+      <c r="D261" t="n">
+        <v>138.1600036621094</v>
+      </c>
+      <c r="E261" t="n">
+        <v>142.2400054931641</v>
+      </c>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="n">
+        <v>135653</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I261" t="n">
+        <v>3</v>
+      </c>
+      <c r="J261" t="n">
+        <v>19</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>12</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B262" t="n">
+        <v>142.9199981689453</v>
+      </c>
+      <c r="C262" t="n">
+        <v>147.6999969482422</v>
+      </c>
+      <c r="D262" t="n">
+        <v>139.2599945068359</v>
+      </c>
+      <c r="E262" t="n">
+        <v>143.3999938964844</v>
+      </c>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="n">
+        <v>167796</v>
+      </c>
+      <c r="H262" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I262" t="n">
+        <v>3</v>
+      </c>
+      <c r="J262" t="n">
+        <v>20</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>12</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B263" t="n">
+        <v>142.0099945068359</v>
+      </c>
+      <c r="C263" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D263" t="n">
+        <v>142</v>
+      </c>
+      <c r="E263" t="n">
+        <v>146.1199951171875</v>
+      </c>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="n">
+        <v>144517</v>
+      </c>
+      <c r="H263" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I263" t="n">
+        <v>3</v>
+      </c>
+      <c r="J263" t="n">
+        <v>21</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>12</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R263"/>
+  <dimension ref="A1:R272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14619,7 +14619,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
-      <c r="R255" t="inlineStr"/>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14671,7 +14673,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
-      <c r="R256" t="inlineStr"/>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14723,7 +14727,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
-      <c r="R257" t="inlineStr"/>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14775,7 +14781,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
-      <c r="R258" t="inlineStr"/>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14827,7 +14835,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
-      <c r="R259" t="inlineStr"/>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14879,7 +14889,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
-      <c r="R260" t="inlineStr"/>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14931,7 +14943,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
-      <c r="R261" t="inlineStr"/>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14983,7 +14997,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
-      <c r="R262" t="inlineStr"/>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -15035,7 +15051,477 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
-      <c r="R263" t="inlineStr"/>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B264" t="n">
+        <v>149</v>
+      </c>
+      <c r="C264" t="n">
+        <v>150</v>
+      </c>
+      <c r="D264" t="n">
+        <v>144.7700042724609</v>
+      </c>
+      <c r="E264" t="n">
+        <v>145.1600036621094</v>
+      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="n">
+        <v>111208</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I264" t="n">
+        <v>3</v>
+      </c>
+      <c r="J264" t="n">
+        <v>24</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>13</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B265" t="n">
+        <v>145.1499938964844</v>
+      </c>
+      <c r="C265" t="n">
+        <v>147.8099975585938</v>
+      </c>
+      <c r="D265" t="n">
+        <v>140.1199951171875</v>
+      </c>
+      <c r="E265" t="n">
+        <v>140.8899993896484</v>
+      </c>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>131567</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I265" t="n">
+        <v>3</v>
+      </c>
+      <c r="J265" t="n">
+        <v>25</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>13</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B266" t="n">
+        <v>142.4199981689453</v>
+      </c>
+      <c r="C266" t="n">
+        <v>142.5599975585938</v>
+      </c>
+      <c r="D266" t="n">
+        <v>135</v>
+      </c>
+      <c r="E266" t="n">
+        <v>135.5599975585938</v>
+      </c>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="n">
+        <v>172487</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I266" t="n">
+        <v>3</v>
+      </c>
+      <c r="J266" t="n">
+        <v>26</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>13</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B267" t="n">
+        <v>135.4900054931641</v>
+      </c>
+      <c r="C267" t="n">
+        <v>142.4900054931641</v>
+      </c>
+      <c r="D267" t="n">
+        <v>134.6100006103516</v>
+      </c>
+      <c r="E267" t="n">
+        <v>138.6100006103516</v>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="n">
+        <v>297713</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I267" t="n">
+        <v>3</v>
+      </c>
+      <c r="J267" t="n">
+        <v>27</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>13</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B268" t="n">
+        <v>140</v>
+      </c>
+      <c r="C268" t="n">
+        <v>149.4900054931641</v>
+      </c>
+      <c r="D268" t="n">
+        <v>137.8600006103516</v>
+      </c>
+      <c r="E268" t="n">
+        <v>146.9700012207031</v>
+      </c>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="n">
+        <v>335619</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I268" t="n">
+        <v>3</v>
+      </c>
+      <c r="J268" t="n">
+        <v>28</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>13</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B269" t="n">
+        <v>146.9799957275391</v>
+      </c>
+      <c r="C269" t="n">
+        <v>153.5800018310547</v>
+      </c>
+      <c r="D269" t="n">
+        <v>144.8000030517578</v>
+      </c>
+      <c r="E269" t="n">
+        <v>149.2299957275391</v>
+      </c>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="n">
+        <v>194244</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I269" t="n">
+        <v>4</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>14</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B270" t="n">
+        <v>150.1799926757812</v>
+      </c>
+      <c r="C270" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="D270" t="n">
+        <v>142</v>
+      </c>
+      <c r="E270" t="n">
+        <v>155.4400024414062</v>
+      </c>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="n">
+        <v>229098</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I270" t="n">
+        <v>4</v>
+      </c>
+      <c r="J270" t="n">
+        <v>2</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>14</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B271" t="n">
+        <v>153.4400024414062</v>
+      </c>
+      <c r="C271" t="n">
+        <v>173</v>
+      </c>
+      <c r="D271" t="n">
+        <v>153.4400024414062</v>
+      </c>
+      <c r="E271" t="n">
+        <v>169</v>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="n">
+        <v>564823</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I271" t="n">
+        <v>4</v>
+      </c>
+      <c r="J271" t="n">
+        <v>3</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>14</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B272" t="n">
+        <v>166.4499969482422</v>
+      </c>
+      <c r="C272" t="n">
+        <v>170.9499969482422</v>
+      </c>
+      <c r="D272" t="n">
+        <v>163.5500030517578</v>
+      </c>
+      <c r="E272" t="n">
+        <v>168.4100036621094</v>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="n">
+        <v>193107</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I272" t="n">
+        <v>4</v>
+      </c>
+      <c r="J272" t="n">
+        <v>4</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>14</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R272"/>
+  <dimension ref="A1:R276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15105,7 +15105,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
-      <c r="R264" t="inlineStr"/>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -15157,7 +15159,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
-      <c r="R265" t="inlineStr"/>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -15209,7 +15213,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
-      <c r="R266" t="inlineStr"/>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -15261,7 +15267,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
-      <c r="R267" t="inlineStr"/>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -15313,7 +15321,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
-      <c r="R268" t="inlineStr"/>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -15365,7 +15375,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
-      <c r="R269" t="inlineStr"/>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -15417,7 +15429,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
-      <c r="R270" t="inlineStr"/>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -15469,7 +15483,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
-      <c r="R271" t="inlineStr"/>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -15521,7 +15537,217 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
-      <c r="R272" t="inlineStr"/>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B273" t="n">
+        <v>142</v>
+      </c>
+      <c r="C273" t="n">
+        <v>172</v>
+      </c>
+      <c r="D273" t="n">
+        <v>142</v>
+      </c>
+      <c r="E273" t="n">
+        <v>166.9199981689453</v>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>372075</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I273" t="n">
+        <v>4</v>
+      </c>
+      <c r="J273" t="n">
+        <v>7</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>15</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B274" t="n">
+        <v>172</v>
+      </c>
+      <c r="C274" t="n">
+        <v>176.75</v>
+      </c>
+      <c r="D274" t="n">
+        <v>169.6000061035156</v>
+      </c>
+      <c r="E274" t="n">
+        <v>171.7400054931641</v>
+      </c>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>258716</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I274" t="n">
+        <v>4</v>
+      </c>
+      <c r="J274" t="n">
+        <v>8</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>15</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B275" t="n">
+        <v>172.3899993896484</v>
+      </c>
+      <c r="C275" t="n">
+        <v>174.3000030517578</v>
+      </c>
+      <c r="D275" t="n">
+        <v>165.4400024414062</v>
+      </c>
+      <c r="E275" t="n">
+        <v>166.8600006103516</v>
+      </c>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>101514</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I275" t="n">
+        <v>4</v>
+      </c>
+      <c r="J275" t="n">
+        <v>9</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>15</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B276" t="n">
+        <v>168.3099975585938</v>
+      </c>
+      <c r="C276" t="n">
+        <v>172.9499969482422</v>
+      </c>
+      <c r="D276" t="n">
+        <v>165.4600067138672</v>
+      </c>
+      <c r="E276" t="n">
+        <v>167.1399993896484</v>
+      </c>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>92759</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I276" t="n">
+        <v>4</v>
+      </c>
+      <c r="J276" t="n">
+        <v>11</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>15</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R276"/>
+  <dimension ref="A1:R279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15591,7 +15591,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
-      <c r="R273" t="inlineStr"/>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -15643,7 +15645,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
-      <c r="R274" t="inlineStr"/>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15695,7 +15699,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
-      <c r="R275" t="inlineStr"/>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15747,7 +15753,165 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
-      <c r="R276" t="inlineStr"/>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B277" t="n">
+        <v>168.1000061035156</v>
+      </c>
+      <c r="C277" t="n">
+        <v>171.0899963378906</v>
+      </c>
+      <c r="D277" t="n">
+        <v>167</v>
+      </c>
+      <c r="E277" t="n">
+        <v>168.1499938964844</v>
+      </c>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>92220</v>
+      </c>
+      <c r="H277" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I277" t="n">
+        <v>4</v>
+      </c>
+      <c r="J277" t="n">
+        <v>15</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>16</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B278" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="C278" t="n">
+        <v>169.9499969482422</v>
+      </c>
+      <c r="D278" t="n">
+        <v>164.6999969482422</v>
+      </c>
+      <c r="E278" t="n">
+        <v>165.5099945068359</v>
+      </c>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>68231</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I278" t="n">
+        <v>4</v>
+      </c>
+      <c r="J278" t="n">
+        <v>16</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>16</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B279" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="C279" t="n">
+        <v>168.1600036621094</v>
+      </c>
+      <c r="D279" t="n">
+        <v>164.0700073242188</v>
+      </c>
+      <c r="E279" t="n">
+        <v>164.5599975585938</v>
+      </c>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>63064</v>
+      </c>
+      <c r="H279" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I279" t="n">
+        <v>4</v>
+      </c>
+      <c r="J279" t="n">
+        <v>17</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>16</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R279"/>
+  <dimension ref="A1:R288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="Q141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R141" t="n">
         <v>0</v>
@@ -15637,7 +15637,7 @@
         <v>15</v>
       </c>
       <c r="O274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P274" t="n">
         <v>0</v>
@@ -15807,7 +15807,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
-      <c r="R277" t="inlineStr"/>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15859,7 +15861,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
-      <c r="R278" t="inlineStr"/>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15911,7 +15915,477 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
-      <c r="R279" t="inlineStr"/>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B280" t="n">
+        <v>165.6100006103516</v>
+      </c>
+      <c r="C280" t="n">
+        <v>169</v>
+      </c>
+      <c r="D280" t="n">
+        <v>165</v>
+      </c>
+      <c r="E280" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>82512</v>
+      </c>
+      <c r="H280" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I280" t="n">
+        <v>4</v>
+      </c>
+      <c r="J280" t="n">
+        <v>21</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>17</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B281" t="n">
+        <v>168.5099945068359</v>
+      </c>
+      <c r="C281" t="n">
+        <v>170.7799987792969</v>
+      </c>
+      <c r="D281" t="n">
+        <v>165.8300018310547</v>
+      </c>
+      <c r="E281" t="n">
+        <v>167.8200073242188</v>
+      </c>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>76112</v>
+      </c>
+      <c r="H281" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I281" t="n">
+        <v>4</v>
+      </c>
+      <c r="J281" t="n">
+        <v>22</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>17</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B282" t="n">
+        <v>169</v>
+      </c>
+      <c r="C282" t="n">
+        <v>169.7899932861328</v>
+      </c>
+      <c r="D282" t="n">
+        <v>163.8999938964844</v>
+      </c>
+      <c r="E282" t="n">
+        <v>164.8899993896484</v>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>77524</v>
+      </c>
+      <c r="H282" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I282" t="n">
+        <v>4</v>
+      </c>
+      <c r="J282" t="n">
+        <v>23</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>17</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B283" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="C283" t="n">
+        <v>167.3099975585938</v>
+      </c>
+      <c r="D283" t="n">
+        <v>163.3099975585938</v>
+      </c>
+      <c r="E283" t="n">
+        <v>163.6999969482422</v>
+      </c>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>70362</v>
+      </c>
+      <c r="H283" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I283" t="n">
+        <v>4</v>
+      </c>
+      <c r="J283" t="n">
+        <v>24</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>17</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B284" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="C284" t="n">
+        <v>164.9900054931641</v>
+      </c>
+      <c r="D284" t="n">
+        <v>158</v>
+      </c>
+      <c r="E284" t="n">
+        <v>158.6999969482422</v>
+      </c>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>74451</v>
+      </c>
+      <c r="H284" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I284" t="n">
+        <v>4</v>
+      </c>
+      <c r="J284" t="n">
+        <v>25</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>17</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B285" t="n">
+        <v>158</v>
+      </c>
+      <c r="C285" t="n">
+        <v>162.9600067138672</v>
+      </c>
+      <c r="D285" t="n">
+        <v>155.6499938964844</v>
+      </c>
+      <c r="E285" t="n">
+        <v>161.0800018310547</v>
+      </c>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>113535</v>
+      </c>
+      <c r="H285" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I285" t="n">
+        <v>4</v>
+      </c>
+      <c r="J285" t="n">
+        <v>28</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>18</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>2</v>
+      </c>
+      <c r="R285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B286" t="n">
+        <v>161.3999938964844</v>
+      </c>
+      <c r="C286" t="n">
+        <v>163.4400024414062</v>
+      </c>
+      <c r="D286" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E286" t="n">
+        <v>156.1000061035156</v>
+      </c>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="n">
+        <v>127571</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I286" t="n">
+        <v>4</v>
+      </c>
+      <c r="J286" t="n">
+        <v>29</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>18</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B287" t="n">
+        <v>156.1000061035156</v>
+      </c>
+      <c r="C287" t="n">
+        <v>158.5099945068359</v>
+      </c>
+      <c r="D287" t="n">
+        <v>153.3699951171875</v>
+      </c>
+      <c r="E287" t="n">
+        <v>154.8699951171875</v>
+      </c>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="n">
+        <v>63903</v>
+      </c>
+      <c r="H287" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I287" t="n">
+        <v>4</v>
+      </c>
+      <c r="J287" t="n">
+        <v>30</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>18</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B288" t="n">
+        <v>156</v>
+      </c>
+      <c r="C288" t="n">
+        <v>157.4400024414062</v>
+      </c>
+      <c r="D288" t="n">
+        <v>153.2899932861328</v>
+      </c>
+      <c r="E288" t="n">
+        <v>154.4799957275391</v>
+      </c>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="n">
+        <v>53647</v>
+      </c>
+      <c r="H288" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I288" t="n">
+        <v>5</v>
+      </c>
+      <c r="J288" t="n">
+        <v>2</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>18</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1d/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R288"/>
+  <dimension ref="A1:R298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15969,7 +15969,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
-      <c r="R280" t="inlineStr"/>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -16021,7 +16023,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
-      <c r="R281" t="inlineStr"/>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -16073,7 +16077,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
-      <c r="R282" t="inlineStr"/>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -16125,7 +16131,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
-      <c r="R283" t="inlineStr"/>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -16177,7 +16185,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
-      <c r="R284" t="inlineStr"/>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -16229,7 +16239,9 @@
       <c r="Q285" t="n">
         <v>2</v>
       </c>
-      <c r="R285" t="inlineStr"/>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -16281,7 +16293,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
-      <c r="R286" t="inlineStr"/>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -16333,7 +16347,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
-      <c r="R287" t="inlineStr"/>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -16385,7 +16401,529 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
-      <c r="R288" t="inlineStr"/>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B289" t="n">
+        <v>156.9900054931641</v>
+      </c>
+      <c r="C289" t="n">
+        <v>159</v>
+      </c>
+      <c r="D289" t="n">
+        <v>153</v>
+      </c>
+      <c r="E289" t="n">
+        <v>153.7100067138672</v>
+      </c>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="n">
+        <v>96470</v>
+      </c>
+      <c r="H289" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I289" t="n">
+        <v>5</v>
+      </c>
+      <c r="J289" t="n">
+        <v>5</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>19</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B290" t="n">
+        <v>152.5200042724609</v>
+      </c>
+      <c r="C290" t="n">
+        <v>154.9900054931641</v>
+      </c>
+      <c r="D290" t="n">
+        <v>149</v>
+      </c>
+      <c r="E290" t="n">
+        <v>150.4100036621094</v>
+      </c>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="n">
+        <v>87446</v>
+      </c>
+      <c r="H290" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I290" t="n">
+        <v>5</v>
+      </c>
+      <c r="J290" t="n">
+        <v>6</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>19</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B291" t="n">
+        <v>147.4400024414062</v>
+      </c>
+      <c r="C291" t="n">
+        <v>150.7899932861328</v>
+      </c>
+      <c r="D291" t="n">
+        <v>145.4100036621094</v>
+      </c>
+      <c r="E291" t="n">
+        <v>148.1000061035156</v>
+      </c>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="n">
+        <v>124787</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I291" t="n">
+        <v>5</v>
+      </c>
+      <c r="J291" t="n">
+        <v>7</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>19</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B292" t="n">
+        <v>148</v>
+      </c>
+      <c r="C292" t="n">
+        <v>153.7799987792969</v>
+      </c>
+      <c r="D292" t="n">
+        <v>147.0899963378906</v>
+      </c>
+      <c r="E292" t="n">
+        <v>148.3600006103516</v>
+      </c>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="n">
+        <v>54436</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I292" t="n">
+        <v>5</v>
+      </c>
+      <c r="J292" t="n">
+        <v>8</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>19</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B293" t="n">
+        <v>145.4400024414062</v>
+      </c>
+      <c r="C293" t="n">
+        <v>151.4400024414062</v>
+      </c>
+      <c r="D293" t="n">
+        <v>145</v>
+      </c>
+      <c r="E293" t="n">
+        <v>147.6199951171875</v>
+      </c>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="n">
+        <v>95876</v>
+      </c>
+      <c r="H293" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I293" t="n">
+        <v>5</v>
+      </c>
+      <c r="J293" t="n">
+        <v>9</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>19</v>
+      </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B294" t="n">
+        <v>153</v>
+      </c>
+      <c r="C294" t="n">
+        <v>159.1100006103516</v>
+      </c>
+      <c r="D294" t="n">
+        <v>152.0899963378906</v>
+      </c>
+      <c r="E294" t="n">
+        <v>155.5299987792969</v>
+      </c>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="n">
+        <v>153097</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I294" t="n">
+        <v>5</v>
+      </c>
+      <c r="J294" t="n">
+        <v>12</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>20</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B295" t="n">
+        <v>155.6499938964844</v>
+      </c>
+      <c r="C295" t="n">
+        <v>160.4400024414062</v>
+      </c>
+      <c r="D295" t="n">
+        <v>155.0099945068359</v>
+      </c>
+      <c r="E295" t="n">
+        <v>156.8800048828125</v>
+      </c>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="n">
+        <v>111192</v>
+      </c>
+      <c r="H295" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I295" t="n">
+        <v>5</v>
+      </c>
+      <c r="J295" t="n">
+        <v>13</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>20</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B296" t="n">
+        <v>156</v>
+      </c>
+      <c r="C296" t="n">
+        <v>161</v>
+      </c>
+      <c r="D296" t="n">
+        <v>156</v>
+      </c>
+      <c r="E296" t="n">
+        <v>158.4900054931641</v>
+      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="n">
+        <v>96876</v>
+      </c>
+      <c r="H296" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I296" t="n">
+        <v>5</v>
+      </c>
+      <c r="J296" t="n">
+        <v>14</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>20</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B297" t="n">
+        <v>160.0500030517578</v>
+      </c>
+      <c r="C297" t="n">
+        <v>162.6999969482422</v>
+      </c>
+      <c r="D297" t="n">
+        <v>157.8000030517578</v>
+      </c>
+      <c r="E297" t="n">
+        <v>158.7200012207031</v>
+      </c>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="n">
+        <v>120094</v>
+      </c>
+      <c r="H297" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I297" t="n">
+        <v>5</v>
+      </c>
+      <c r="J297" t="n">
+        <v>15</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>20</v>
+      </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B298" t="n">
+        <v>158.0099945068359</v>
+      </c>
+      <c r="C298" t="n">
+        <v>162</v>
+      </c>
+      <c r="D298" t="n">
+        <v>158.0099945068359</v>
+      </c>
+      <c r="E298" t="n">
+        <v>160.2400054931641</v>
+      </c>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="n">
+        <v>99312</v>
+      </c>
+      <c r="H298" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I298" t="n">
+        <v>5</v>
+      </c>
+      <c r="J298" t="n">
+        <v>16</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>20</v>
+      </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R298" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
